--- a/interview prep.xlsx
+++ b/interview prep.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1085">
   <si>
     <t xml:space="preserve">This list is prepared by pepcoding for helping students prepare for upcoming interviews.
 Going forward, pepcoding has decided to make all it's current and future content available to students free of cost.
@@ -1233,7 +1233,7 @@
     <t xml:space="preserve">https://www.geeksforgeeks.org/dynamic-programming-set-11-egg-dropping-puzzle/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.geeksforgeeks.org/dynamic-programming-set-21-box-stacking-problem/</t>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/dynamic-programming-set-21-box-stacking-problem/&lt;</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.geeksforgeeks.org/dynamic-programming-set-24-optimal-binary-search-tree/</t>
@@ -4006,14 +4006,14 @@
   </sheetPr>
   <dimension ref="A1:AB929"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D201" activeCellId="0" sqref="D201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D208" activeCellId="0" sqref="D208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="124.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="78.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.14"/>
@@ -9935,7 +9935,9 @@
       <c r="C201" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="D201" s="53"/>
+      <c r="D201" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="E201" s="47"/>
       <c r="F201" s="47"/>
     </row>
@@ -18144,7 +18146,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.71"/>
   </cols>

--- a/interview prep.xlsx
+++ b/interview prep.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1084">
   <si>
     <t xml:space="preserve">This list is prepared by pepcoding for helping students prepare for upcoming interviews.
 Going forward, pepcoding has decided to make all it's current and future content available to students free of cost.
@@ -1227,6 +1227,9 @@
     <t xml:space="preserve">https://www.geeksforgeeks.org/count-number-of-ways-to-partition-a-set-into-k-subsets/</t>
   </si>
   <si>
+    <t xml:space="preserve">read but please code</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.geeksforgeeks.org/dynamic-programming-set-12-longest-palindromic-subsequence/</t>
   </si>
   <si>
@@ -2160,9 +2163,6 @@
     <t xml:space="preserve">https://www.hackerrank.com/challenges/torque-and-development/problem</t>
   </si>
   <si>
-    <t xml:space="preserve">dfs, greedy</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.hackerrank.com/challenges/journey-to-the-moon/problem</t>
   </si>
   <si>
@@ -2209,9 +2209,6 @@
   </si>
   <si>
     <t xml:space="preserve">graph + dp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeout tc</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.hackerearth.com/practice/algorithms/graphs/breadth-first-search/practice-problems/algorithm/we-are-on-fire/</t>
@@ -4006,11 +4003,11 @@
   </sheetPr>
   <dimension ref="A1:AB929"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D208" activeCellId="0" sqref="D208"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C414" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E430" activeCellId="0" sqref="E430"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
@@ -9951,7 +9948,9 @@
       <c r="C202" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="D202" s="53"/>
+      <c r="D202" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="E202" s="47"/>
       <c r="F202" s="47"/>
     </row>
@@ -9979,7 +9978,9 @@
       <c r="C204" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="D204" s="53"/>
+      <c r="D204" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="E204" s="43"/>
       <c r="F204" s="43"/>
     </row>
@@ -9993,7 +9994,9 @@
       <c r="C205" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="D205" s="53"/>
+      <c r="D205" s="53" t="s">
+        <v>399</v>
+      </c>
       <c r="E205" s="47"/>
       <c r="F205" s="47"/>
     </row>
@@ -10005,9 +10008,11 @@
         <v>385</v>
       </c>
       <c r="C206" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="D206" s="53"/>
+        <v>400</v>
+      </c>
+      <c r="D206" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="E206" s="43"/>
       <c r="F206" s="43"/>
     </row>
@@ -10019,7 +10024,7 @@
         <v>385</v>
       </c>
       <c r="C207" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D207" s="53"/>
       <c r="E207" s="43"/>
@@ -10033,7 +10038,7 @@
         <v>385</v>
       </c>
       <c r="C208" s="46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D208" s="52"/>
       <c r="E208" s="47"/>
@@ -10047,7 +10052,7 @@
         <v>385</v>
       </c>
       <c r="C209" s="46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D209" s="53"/>
       <c r="E209" s="47"/>
@@ -10061,7 +10066,7 @@
         <v>385</v>
       </c>
       <c r="C210" s="46" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D210" s="53"/>
       <c r="E210" s="47"/>
@@ -10075,7 +10080,7 @@
         <v>385</v>
       </c>
       <c r="C211" s="46" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D211" s="53"/>
       <c r="E211" s="47"/>
@@ -10089,7 +10094,7 @@
         <v>385</v>
       </c>
       <c r="C212" s="46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D212" s="53"/>
       <c r="E212" s="47"/>
@@ -10103,7 +10108,7 @@
         <v>385</v>
       </c>
       <c r="C213" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D213" s="53"/>
       <c r="E213" s="47"/>
@@ -10117,7 +10122,7 @@
         <v>385</v>
       </c>
       <c r="C214" s="46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D214" s="53"/>
       <c r="E214" s="47"/>
@@ -10131,7 +10136,7 @@
         <v>385</v>
       </c>
       <c r="C215" s="46" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D215" s="53"/>
       <c r="E215" s="47"/>
@@ -10145,12 +10150,12 @@
         <v>385</v>
       </c>
       <c r="C216" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D216" s="53"/>
       <c r="E216" s="47"/>
       <c r="F216" s="46" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,7 +10166,7 @@
         <v>385</v>
       </c>
       <c r="C217" s="46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D217" s="53"/>
       <c r="E217" s="47"/>
@@ -10175,7 +10180,7 @@
         <v>385</v>
       </c>
       <c r="C218" s="46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D218" s="53"/>
       <c r="E218" s="47"/>
@@ -10189,7 +10194,7 @@
         <v>385</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D219" s="52"/>
       <c r="E219" s="20"/>
@@ -10203,7 +10208,7 @@
         <v>385</v>
       </c>
       <c r="C220" s="46" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D220" s="53"/>
       <c r="E220" s="47"/>
@@ -10217,7 +10222,7 @@
         <v>385</v>
       </c>
       <c r="C221" s="46" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D221" s="53"/>
       <c r="E221" s="45" t="s">
@@ -10233,14 +10238,14 @@
         <v>385</v>
       </c>
       <c r="C222" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D222" s="52"/>
       <c r="E222" s="28" t="s">
         <v>134</v>
       </c>
       <c r="F222" s="28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10251,7 +10256,7 @@
         <v>385</v>
       </c>
       <c r="C223" s="46" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D223" s="53"/>
       <c r="E223" s="47"/>
@@ -10279,7 +10284,7 @@
         <v>385</v>
       </c>
       <c r="C225" s="46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D225" s="53"/>
       <c r="E225" s="47"/>
@@ -10293,7 +10298,7 @@
         <v>385</v>
       </c>
       <c r="C226" s="46" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D226" s="52"/>
       <c r="E226" s="47"/>
@@ -10321,7 +10326,7 @@
         <v>385</v>
       </c>
       <c r="C228" s="46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D228" s="53"/>
       <c r="E228" s="47"/>
@@ -10349,7 +10354,7 @@
         <v>385</v>
       </c>
       <c r="C230" s="46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D230" s="53"/>
       <c r="E230" s="45" t="s">
@@ -10365,7 +10370,7 @@
         <v>385</v>
       </c>
       <c r="C231" s="46" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D231" s="53"/>
       <c r="E231" s="47"/>
@@ -10379,7 +10384,7 @@
         <v>385</v>
       </c>
       <c r="C232" s="46" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D232" s="53"/>
       <c r="E232" s="47"/>
@@ -10393,7 +10398,7 @@
         <v>385</v>
       </c>
       <c r="C233" s="46" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D233" s="53"/>
       <c r="E233" s="47"/>
@@ -10407,7 +10412,7 @@
         <v>385</v>
       </c>
       <c r="C234" s="46" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D234" s="52"/>
       <c r="E234" s="47"/>
@@ -10421,7 +10426,7 @@
         <v>385</v>
       </c>
       <c r="C235" s="46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D235" s="53"/>
       <c r="E235" s="47"/>
@@ -10435,7 +10440,7 @@
         <v>385</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D236" s="53"/>
       <c r="E236" s="20"/>
@@ -10449,7 +10454,7 @@
         <v>385</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D237" s="52"/>
       <c r="E237" s="20"/>
@@ -10463,7 +10468,7 @@
         <v>385</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D238" s="52"/>
       <c r="E238" s="20"/>
@@ -10477,7 +10482,7 @@
         <v>385</v>
       </c>
       <c r="C239" s="46" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D239" s="53"/>
       <c r="E239" s="47"/>
@@ -10491,7 +10496,7 @@
         <v>385</v>
       </c>
       <c r="C240" s="46" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D240" s="53"/>
       <c r="E240" s="47"/>
@@ -10519,7 +10524,7 @@
         <v>385</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D242" s="52"/>
       <c r="E242" s="20"/>
@@ -10533,7 +10538,7 @@
         <v>385</v>
       </c>
       <c r="C243" s="46" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D243" s="53"/>
       <c r="E243" s="47"/>
@@ -10547,7 +10552,7 @@
         <v>385</v>
       </c>
       <c r="C244" s="46" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D244" s="53"/>
       <c r="E244" s="47"/>
@@ -10561,7 +10566,7 @@
         <v>385</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D245" s="53"/>
       <c r="E245" s="47"/>
@@ -10575,7 +10580,7 @@
         <v>385</v>
       </c>
       <c r="C246" s="46" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D246" s="53"/>
       <c r="E246" s="47"/>
@@ -10586,13 +10591,13 @@
         <v>8</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E247" s="21"/>
       <c r="F247" s="20"/>
@@ -10624,13 +10629,13 @@
         <v>8</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E248" s="21"/>
       <c r="F248" s="20"/>
@@ -10662,13 +10667,13 @@
         <v>8</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C249" s="54" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E249" s="26" t="s">
         <v>134</v>
@@ -10702,13 +10707,13 @@
         <v>8</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E250" s="21"/>
       <c r="F250" s="21"/>
@@ -10740,13 +10745,13 @@
         <v>8</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
@@ -10778,13 +10783,13 @@
         <v>8</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D252" s="44" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
@@ -10816,13 +10821,13 @@
         <v>8</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E253" s="21"/>
       <c r="F253" s="21"/>
@@ -10854,13 +10859,13 @@
         <v>8</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E254" s="21"/>
       <c r="F254" s="21"/>
@@ -10892,13 +10897,13 @@
         <v>8</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C255" s="54" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="51"/>
@@ -10930,13 +10935,13 @@
         <v>8</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C256" s="24" t="s">
         <v>260</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E256" s="25"/>
       <c r="F256" s="25"/>
@@ -10968,13 +10973,13 @@
         <v>8</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E257" s="25"/>
       <c r="F257" s="25"/>
@@ -11006,13 +11011,13 @@
         <v>8</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E258" s="21"/>
       <c r="F258" s="21"/>
@@ -11044,13 +11049,13 @@
         <v>8</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C259" s="54" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E259" s="26" t="s">
         <v>134</v>
@@ -11084,13 +11089,13 @@
         <v>8</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E260" s="21"/>
       <c r="F260" s="21"/>
@@ -11122,13 +11127,13 @@
         <v>8</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E261" s="21"/>
       <c r="F261" s="21"/>
@@ -11160,13 +11165,13 @@
         <v>8</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E262" s="21"/>
       <c r="F262" s="21"/>
@@ -11198,13 +11203,13 @@
         <v>8</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E263" s="21"/>
       <c r="F263" s="21"/>
@@ -11236,13 +11241,13 @@
         <v>8</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E264" s="21"/>
       <c r="F264" s="21"/>
@@ -11274,13 +11279,13 @@
         <v>8</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E265" s="21"/>
       <c r="F265" s="21"/>
@@ -11312,13 +11317,13 @@
         <v>8</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E266" s="21"/>
       <c r="F266" s="21"/>
@@ -11350,13 +11355,13 @@
         <v>8</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E267" s="21"/>
       <c r="F267" s="21"/>
@@ -11388,13 +11393,13 @@
         <v>9</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E268" s="21"/>
       <c r="F268" s="21"/>
@@ -11426,13 +11431,13 @@
         <v>9</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E269" s="21"/>
       <c r="F269" s="21"/>
@@ -11464,13 +11469,13 @@
         <v>9</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E270" s="21"/>
       <c r="F270" s="21"/>
@@ -11502,13 +11507,13 @@
         <v>9</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E271" s="21"/>
       <c r="F271" s="21"/>
@@ -11540,13 +11545,13 @@
         <v>9</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E272" s="21"/>
       <c r="F272" s="21"/>
@@ -11578,13 +11583,13 @@
         <v>9</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E273" s="21"/>
       <c r="F273" s="21"/>
@@ -11616,13 +11621,13 @@
         <v>9</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E274" s="21"/>
       <c r="F274" s="21"/>
@@ -11654,13 +11659,13 @@
         <v>9</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E275" s="21"/>
       <c r="F275" s="21"/>
@@ -11692,13 +11697,13 @@
         <v>9</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E276" s="21"/>
       <c r="F276" s="21"/>
@@ -11730,13 +11735,13 @@
         <v>9</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E277" s="21"/>
       <c r="F277" s="21"/>
@@ -11768,13 +11773,13 @@
         <v>9</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E278" s="21"/>
       <c r="F278" s="21"/>
@@ -11806,13 +11811,13 @@
         <v>9</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E279" s="21"/>
       <c r="F279" s="21"/>
@@ -11844,13 +11849,13 @@
         <v>9</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E280" s="21"/>
       <c r="F280" s="21"/>
@@ -11882,13 +11887,13 @@
         <v>9</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E281" s="21"/>
       <c r="F281" s="21"/>
@@ -11920,10 +11925,10 @@
         <v>9</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D282" s="21"/>
       <c r="E282" s="18" t="s">
@@ -11958,13 +11963,13 @@
         <v>9</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E283" s="21"/>
       <c r="F283" s="21"/>
@@ -11996,13 +12001,13 @@
         <v>9</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E284" s="21"/>
       <c r="F284" s="21"/>
@@ -12034,13 +12039,13 @@
         <v>9</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D285" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E285" s="21"/>
       <c r="F285" s="21"/>
@@ -12072,10 +12077,10 @@
         <v>9</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D286" s="25"/>
       <c r="E286" s="25"/>
@@ -12108,13 +12113,13 @@
         <v>9</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E287" s="21"/>
       <c r="F287" s="21"/>
@@ -12146,13 +12151,13 @@
         <v>9</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E288" s="21"/>
       <c r="F288" s="21"/>
@@ -12184,13 +12189,13 @@
         <v>9</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E289" s="21"/>
       <c r="F289" s="21"/>
@@ -12222,13 +12227,13 @@
         <v>9</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D290" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E290" s="21"/>
       <c r="F290" s="21"/>
@@ -12260,13 +12265,13 @@
         <v>9</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E291" s="21"/>
       <c r="F291" s="21"/>
@@ -12298,13 +12303,13 @@
         <v>9</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D292" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E292" s="21"/>
       <c r="F292" s="21"/>
@@ -12336,13 +12341,13 @@
         <v>9</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D293" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E293" s="21"/>
       <c r="F293" s="21"/>
@@ -12374,10 +12379,10 @@
         <v>9</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C294" s="54" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D294" s="26"/>
       <c r="E294" s="51"/>
@@ -12410,10 +12415,10 @@
         <v>9</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C295" s="54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="51"/>
@@ -12446,13 +12451,13 @@
         <v>9</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E296" s="21"/>
       <c r="F296" s="21"/>
@@ -12484,13 +12489,13 @@
         <v>9</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E297" s="21"/>
       <c r="F297" s="21"/>
@@ -12522,13 +12527,13 @@
         <v>9</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D298" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E298" s="21"/>
       <c r="F298" s="21"/>
@@ -12560,10 +12565,10 @@
         <v>9</v>
       </c>
       <c r="B299" s="41" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C299" s="42" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D299" s="43"/>
       <c r="E299" s="43"/>
@@ -12574,10 +12579,10 @@
         <v>10</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C300" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D300" s="25"/>
       <c r="E300" s="25"/>
@@ -12588,13 +12593,13 @@
         <v>10</v>
       </c>
       <c r="B301" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C301" s="46" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D301" s="45" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E301" s="47"/>
       <c r="F301" s="47"/>
@@ -12604,10 +12609,10 @@
         <v>10</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C302" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
@@ -12618,10 +12623,10 @@
         <v>10</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C303" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D303" s="23"/>
       <c r="E303" s="23"/>
@@ -12632,10 +12637,10 @@
         <v>10</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C304" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
@@ -12646,10 +12651,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C305" s="46" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D305" s="45"/>
       <c r="E305" s="45"/>
@@ -12660,10 +12665,10 @@
         <v>10</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C306" s="46" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D306" s="45"/>
       <c r="E306" s="45"/>
@@ -12674,10 +12679,10 @@
         <v>10</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C307" s="46" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D307" s="45"/>
       <c r="E307" s="45"/>
@@ -12688,10 +12693,10 @@
         <v>10</v>
       </c>
       <c r="B308" s="56" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C308" s="57" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D308" s="56"/>
       <c r="E308" s="56"/>
@@ -12702,10 +12707,10 @@
         <v>10</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C309" s="46" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D309" s="45"/>
       <c r="E309" s="45" t="s">
@@ -12718,10 +12723,10 @@
         <v>10</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C310" s="46" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D310" s="45"/>
       <c r="E310" s="45"/>
@@ -12732,10 +12737,10 @@
         <v>10</v>
       </c>
       <c r="B311" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C311" s="58" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D311" s="45"/>
       <c r="E311" s="45"/>
@@ -12746,10 +12751,10 @@
         <v>10</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C312" s="38" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
@@ -12760,13 +12765,13 @@
         <v>10</v>
       </c>
       <c r="B313" s="45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C313" s="46" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D313" s="45" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E313" s="45"/>
       <c r="F313" s="47"/>
@@ -12776,13 +12781,13 @@
         <v>10</v>
       </c>
       <c r="B314" s="59" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C314" s="58" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D314" s="59" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E314" s="59" t="s">
         <v>134</v>
@@ -12794,10 +12799,10 @@
         <v>10</v>
       </c>
       <c r="B315" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C315" s="46" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D315" s="47"/>
       <c r="E315" s="47"/>
@@ -12808,10 +12813,10 @@
         <v>10</v>
       </c>
       <c r="B316" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C316" s="58" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D316" s="47"/>
       <c r="E316" s="47"/>
@@ -12822,13 +12827,13 @@
         <v>10</v>
       </c>
       <c r="B317" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C317" s="58" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D317" s="45" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E317" s="45" t="s">
         <v>134</v>
@@ -12840,17 +12845,17 @@
         <v>10</v>
       </c>
       <c r="B318" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C318" s="58" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D318" s="47"/>
       <c r="E318" s="45" t="s">
         <v>134</v>
       </c>
       <c r="F318" s="46" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12858,10 +12863,10 @@
         <v>10</v>
       </c>
       <c r="B319" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C319" s="46" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D319" s="47"/>
       <c r="E319" s="47"/>
@@ -12872,10 +12877,10 @@
         <v>10</v>
       </c>
       <c r="B320" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C320" s="46" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D320" s="47"/>
       <c r="E320" s="47"/>
@@ -12886,10 +12891,10 @@
         <v>10</v>
       </c>
       <c r="B321" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C321" s="46" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D321" s="47"/>
       <c r="E321" s="47"/>
@@ -12900,10 +12905,10 @@
         <v>10</v>
       </c>
       <c r="B322" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C322" s="46" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D322" s="47"/>
       <c r="E322" s="47"/>
@@ -12914,10 +12919,10 @@
         <v>10</v>
       </c>
       <c r="B323" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C323" s="46" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D323" s="47"/>
       <c r="E323" s="47"/>
@@ -12928,10 +12933,10 @@
         <v>10</v>
       </c>
       <c r="B324" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C324" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D324" s="47"/>
       <c r="E324" s="47"/>
@@ -12942,10 +12947,10 @@
         <v>10</v>
       </c>
       <c r="B325" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C325" s="46" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D325" s="47"/>
       <c r="E325" s="47"/>
@@ -12956,10 +12961,10 @@
         <v>10</v>
       </c>
       <c r="B326" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C326" s="46" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D326" s="47"/>
       <c r="E326" s="47"/>
@@ -12970,13 +12975,13 @@
         <v>10</v>
       </c>
       <c r="B327" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C327" s="46" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D327" s="45" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E327" s="47"/>
       <c r="F327" s="47"/>
@@ -12986,10 +12991,10 @@
         <v>10</v>
       </c>
       <c r="B328" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C328" s="46" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D328" s="47"/>
       <c r="E328" s="47"/>
@@ -13000,10 +13005,10 @@
         <v>10</v>
       </c>
       <c r="B329" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C329" s="46" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D329" s="47"/>
       <c r="E329" s="47"/>
@@ -13014,10 +13019,10 @@
         <v>10</v>
       </c>
       <c r="B330" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C330" s="46" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D330" s="47"/>
       <c r="E330" s="47"/>
@@ -13028,10 +13033,10 @@
         <v>10</v>
       </c>
       <c r="B331" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C331" s="46" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D331" s="47"/>
       <c r="E331" s="47"/>
@@ -13042,10 +13047,10 @@
         <v>10</v>
       </c>
       <c r="B332" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C332" s="46" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D332" s="47"/>
       <c r="E332" s="47"/>
@@ -13056,10 +13061,10 @@
         <v>10</v>
       </c>
       <c r="B333" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C333" s="46" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D333" s="47"/>
       <c r="E333" s="47"/>
@@ -13070,13 +13075,13 @@
         <v>10</v>
       </c>
       <c r="B334" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C334" s="46" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D334" s="45" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E334" s="47"/>
       <c r="F334" s="47"/>
@@ -13086,10 +13091,10 @@
         <v>10</v>
       </c>
       <c r="B335" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C335" s="46" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D335" s="47"/>
       <c r="E335" s="47"/>
@@ -13100,10 +13105,10 @@
         <v>10</v>
       </c>
       <c r="B336" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C336" s="46" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D336" s="47"/>
       <c r="E336" s="47"/>
@@ -13114,10 +13119,10 @@
         <v>10</v>
       </c>
       <c r="B337" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C337" s="46" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D337" s="47"/>
       <c r="E337" s="47"/>
@@ -13128,10 +13133,10 @@
         <v>10</v>
       </c>
       <c r="B338" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C338" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D338" s="47"/>
       <c r="E338" s="47"/>
@@ -13142,10 +13147,10 @@
         <v>10</v>
       </c>
       <c r="B339" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C339" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D339" s="47"/>
       <c r="E339" s="47"/>
@@ -13156,13 +13161,13 @@
         <v>10</v>
       </c>
       <c r="B340" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C340" s="46" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E340" s="47"/>
       <c r="F340" s="47"/>
@@ -13172,10 +13177,10 @@
         <v>10</v>
       </c>
       <c r="B341" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C341" s="46" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D341" s="47"/>
       <c r="E341" s="47"/>
@@ -13186,10 +13191,10 @@
         <v>10</v>
       </c>
       <c r="B342" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C342" s="46" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D342" s="47"/>
       <c r="E342" s="47"/>
@@ -13200,10 +13205,10 @@
         <v>10</v>
       </c>
       <c r="B343" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C343" s="46" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D343" s="47"/>
       <c r="E343" s="47"/>
@@ -13214,10 +13219,10 @@
         <v>10</v>
       </c>
       <c r="B344" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C344" s="46" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D344" s="47"/>
       <c r="E344" s="47"/>
@@ -13228,10 +13233,10 @@
         <v>10</v>
       </c>
       <c r="B345" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C345" s="46" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D345" s="47"/>
       <c r="E345" s="47"/>
@@ -13242,10 +13247,10 @@
         <v>10</v>
       </c>
       <c r="B346" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C346" s="46" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D346" s="47"/>
       <c r="E346" s="47"/>
@@ -13256,10 +13261,10 @@
         <v>10</v>
       </c>
       <c r="B347" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C347" s="46" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D347" s="47"/>
       <c r="E347" s="47"/>
@@ -13270,10 +13275,10 @@
         <v>10</v>
       </c>
       <c r="B348" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C348" s="46" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D348" s="47"/>
       <c r="E348" s="47"/>
@@ -13284,13 +13289,13 @@
         <v>10</v>
       </c>
       <c r="B349" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C349" s="46" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D349" s="45" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E349" s="47"/>
       <c r="F349" s="47"/>
@@ -13300,10 +13305,10 @@
         <v>10</v>
       </c>
       <c r="B350" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C350" s="46" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D350" s="47"/>
       <c r="E350" s="47"/>
@@ -13314,10 +13319,10 @@
         <v>10</v>
       </c>
       <c r="B351" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C351" s="46" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D351" s="47"/>
       <c r="E351" s="47"/>
@@ -13328,10 +13333,10 @@
         <v>10</v>
       </c>
       <c r="B352" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C352" s="46" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D352" s="47"/>
       <c r="E352" s="47"/>
@@ -13342,10 +13347,10 @@
         <v>10</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C353" s="24" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D353" s="25"/>
       <c r="E353" s="25"/>
@@ -13356,10 +13361,10 @@
         <v>10</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C354" s="24" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D354" s="25"/>
       <c r="E354" s="25"/>
@@ -13370,10 +13375,10 @@
         <v>10</v>
       </c>
       <c r="B355" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C355" s="61" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D355" s="45"/>
       <c r="E355" s="47"/>
@@ -13384,10 +13389,10 @@
         <v>10</v>
       </c>
       <c r="B356" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C356" s="46" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D356" s="47"/>
       <c r="E356" s="47"/>
@@ -13398,10 +13403,10 @@
         <v>10</v>
       </c>
       <c r="B357" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C357" s="46" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D357" s="47"/>
       <c r="E357" s="47"/>
@@ -13412,10 +13417,10 @@
         <v>10</v>
       </c>
       <c r="B358" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C358" s="46" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D358" s="47"/>
       <c r="E358" s="47"/>
@@ -13426,10 +13431,10 @@
         <v>10</v>
       </c>
       <c r="B359" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D359" s="47"/>
       <c r="E359" s="47"/>
@@ -13440,10 +13445,10 @@
         <v>10</v>
       </c>
       <c r="B360" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C360" s="46" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D360" s="47"/>
       <c r="E360" s="47"/>
@@ -13454,10 +13459,10 @@
         <v>10</v>
       </c>
       <c r="B361" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C361" s="46" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D361" s="50"/>
       <c r="E361" s="47"/>
@@ -13468,10 +13473,10 @@
         <v>10</v>
       </c>
       <c r="B362" s="41" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C362" s="42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D362" s="43"/>
       <c r="E362" s="43"/>
@@ -13482,13 +13487,13 @@
         <v>10</v>
       </c>
       <c r="B363" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C363" s="46" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D363" s="45" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E363" s="47"/>
       <c r="F363" s="47"/>
@@ -13498,10 +13503,10 @@
         <v>10</v>
       </c>
       <c r="B364" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C364" s="46" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D364" s="47"/>
       <c r="E364" s="47"/>
@@ -13512,13 +13517,13 @@
         <v>10</v>
       </c>
       <c r="B365" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C365" s="46" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D365" s="45" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E365" s="47"/>
       <c r="F365" s="47"/>
@@ -13528,10 +13533,10 @@
         <v>11</v>
       </c>
       <c r="B366" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C366" s="46" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D366" s="47"/>
       <c r="E366" s="47"/>
@@ -13542,10 +13547,10 @@
         <v>11</v>
       </c>
       <c r="B367" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C367" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D367" s="47"/>
       <c r="E367" s="47"/>
@@ -13556,10 +13561,10 @@
         <v>11</v>
       </c>
       <c r="B368" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C368" s="46" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D368" s="47"/>
       <c r="E368" s="47"/>
@@ -13570,10 +13575,10 @@
         <v>11</v>
       </c>
       <c r="B369" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C369" s="46" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D369" s="47"/>
       <c r="E369" s="45" t="s">
@@ -13586,10 +13591,10 @@
         <v>11</v>
       </c>
       <c r="B370" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C370" s="46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D370" s="47"/>
       <c r="E370" s="47"/>
@@ -13600,10 +13605,10 @@
         <v>11</v>
       </c>
       <c r="B371" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C371" s="46" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D371" s="47"/>
       <c r="E371" s="47"/>
@@ -13614,10 +13619,10 @@
         <v>11</v>
       </c>
       <c r="B372" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C372" s="46" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D372" s="47"/>
       <c r="E372" s="47"/>
@@ -13628,10 +13633,10 @@
         <v>11</v>
       </c>
       <c r="B373" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C373" s="46" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D373" s="47"/>
       <c r="E373" s="47"/>
@@ -13642,15 +13647,15 @@
         <v>11</v>
       </c>
       <c r="B374" s="62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C374" s="63" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D374" s="64"/>
       <c r="E374" s="64"/>
       <c r="F374" s="63" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13658,10 +13663,10 @@
         <v>11</v>
       </c>
       <c r="B375" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C375" s="46" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D375" s="47"/>
       <c r="E375" s="47"/>
@@ -13672,10 +13677,10 @@
         <v>11</v>
       </c>
       <c r="B376" s="62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C376" s="63" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D376" s="64"/>
       <c r="E376" s="64"/>
@@ -13686,10 +13691,10 @@
         <v>11</v>
       </c>
       <c r="B377" s="62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C377" s="63" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D377" s="64"/>
       <c r="E377" s="64"/>
@@ -13700,10 +13705,10 @@
         <v>11</v>
       </c>
       <c r="B378" s="62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C378" s="63" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D378" s="64"/>
       <c r="E378" s="64"/>
@@ -13714,10 +13719,10 @@
         <v>11</v>
       </c>
       <c r="B379" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C379" s="46" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D379" s="47"/>
       <c r="E379" s="47"/>
@@ -13728,10 +13733,10 @@
         <v>11</v>
       </c>
       <c r="B380" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C380" s="46" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D380" s="47"/>
       <c r="E380" s="47"/>
@@ -13742,10 +13747,10 @@
         <v>11</v>
       </c>
       <c r="B381" s="62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C381" s="63" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D381" s="64"/>
       <c r="E381" s="64"/>
@@ -13756,10 +13761,10 @@
         <v>11</v>
       </c>
       <c r="B382" s="62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C382" s="63" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D382" s="64"/>
       <c r="E382" s="64"/>
@@ -13770,10 +13775,10 @@
         <v>11</v>
       </c>
       <c r="B383" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C383" s="46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D383" s="47"/>
       <c r="E383" s="47"/>
@@ -13784,10 +13789,10 @@
         <v>11</v>
       </c>
       <c r="B384" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C384" s="46" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D384" s="47"/>
       <c r="E384" s="47"/>
@@ -13798,10 +13803,10 @@
         <v>11</v>
       </c>
       <c r="B385" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C385" s="46" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D385" s="47"/>
       <c r="E385" s="47"/>
@@ -13812,10 +13817,10 @@
         <v>11</v>
       </c>
       <c r="B386" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C386" s="46" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D386" s="47"/>
       <c r="E386" s="47"/>
@@ -13826,10 +13831,10 @@
         <v>11</v>
       </c>
       <c r="B387" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C387" s="46" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D387" s="47"/>
       <c r="E387" s="47"/>
@@ -13840,10 +13845,10 @@
         <v>11</v>
       </c>
       <c r="B388" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C388" s="46" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D388" s="47"/>
       <c r="E388" s="47"/>
@@ -13854,17 +13859,17 @@
         <v>11</v>
       </c>
       <c r="B389" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C389" s="46" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D389" s="45" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E389" s="47"/>
       <c r="F389" s="46" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13872,10 +13877,10 @@
         <v>11</v>
       </c>
       <c r="B390" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C390" s="46" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D390" s="47"/>
       <c r="E390" s="47"/>
@@ -13886,13 +13891,13 @@
         <v>11</v>
       </c>
       <c r="B391" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C391" s="46" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D391" s="45" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E391" s="47"/>
       <c r="F391" s="47"/>
@@ -13902,10 +13907,10 @@
         <v>11</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C392" s="24" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D392" s="25"/>
       <c r="E392" s="25"/>
@@ -13916,10 +13921,10 @@
         <v>11</v>
       </c>
       <c r="B393" s="23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C393" s="24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D393" s="25"/>
       <c r="E393" s="25"/>
@@ -13930,13 +13935,13 @@
         <v>12</v>
       </c>
       <c r="B394" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D394" s="18" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E394" s="21"/>
       <c r="F394" s="21"/>
@@ -13968,13 +13973,13 @@
         <v>12</v>
       </c>
       <c r="B395" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D395" s="18" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E395" s="21"/>
       <c r="F395" s="21"/>
@@ -14006,13 +14011,13 @@
         <v>12</v>
       </c>
       <c r="B396" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D396" s="18" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E396" s="21"/>
       <c r="F396" s="21"/>
@@ -14044,13 +14049,13 @@
         <v>12</v>
       </c>
       <c r="B397" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D397" s="18" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E397" s="21"/>
       <c r="F397" s="21"/>
@@ -14082,13 +14087,13 @@
         <v>12</v>
       </c>
       <c r="B398" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C398" s="19" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D398" s="18" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E398" s="21"/>
       <c r="F398" s="21"/>
@@ -14120,13 +14125,13 @@
         <v>12</v>
       </c>
       <c r="B399" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D399" s="18" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E399" s="21"/>
       <c r="F399" s="21"/>
@@ -14158,13 +14163,13 @@
         <v>12</v>
       </c>
       <c r="B400" s="28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C400" s="30" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D400" s="28" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E400" s="20"/>
       <c r="F400" s="20"/>
@@ -14196,13 +14201,13 @@
         <v>12</v>
       </c>
       <c r="B401" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D401" s="18" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E401" s="21"/>
       <c r="F401" s="21"/>
@@ -14234,13 +14239,13 @@
         <v>12</v>
       </c>
       <c r="B402" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D402" s="18" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E402" s="21"/>
       <c r="F402" s="21"/>
@@ -14272,13 +14277,13 @@
         <v>12</v>
       </c>
       <c r="B403" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D403" s="18" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E403" s="21"/>
       <c r="F403" s="21"/>
@@ -14310,13 +14315,13 @@
         <v>12</v>
       </c>
       <c r="B404" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D404" s="18" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E404" s="21"/>
       <c r="F404" s="21"/>
@@ -14348,13 +14353,13 @@
         <v>12</v>
       </c>
       <c r="B405" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D405" s="18" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E405" s="21"/>
       <c r="F405" s="21"/>
@@ -14386,13 +14391,13 @@
         <v>12</v>
       </c>
       <c r="B406" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E406" s="21"/>
       <c r="F406" s="21"/>
@@ -14424,13 +14429,13 @@
         <v>12</v>
       </c>
       <c r="B407" s="28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C407" s="30" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E407" s="28" t="s">
         <v>134</v>
@@ -14464,13 +14469,13 @@
         <v>12</v>
       </c>
       <c r="B408" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D408" s="18" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E408" s="21"/>
       <c r="F408" s="21"/>
@@ -14502,13 +14507,13 @@
         <v>12</v>
       </c>
       <c r="B409" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C409" s="24" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E409" s="23" t="s">
         <v>134</v>
@@ -14542,10 +14547,10 @@
         <v>12</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C410" s="24" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D410" s="25"/>
       <c r="E410" s="23" t="s">
@@ -14580,13 +14585,13 @@
         <v>12</v>
       </c>
       <c r="B411" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D411" s="18" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E411" s="21"/>
       <c r="F411" s="21"/>
@@ -14618,13 +14623,13 @@
         <v>12</v>
       </c>
       <c r="B412" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D412" s="18" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E412" s="21"/>
       <c r="F412" s="21"/>
@@ -14656,13 +14661,13 @@
         <v>12</v>
       </c>
       <c r="B413" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C413" s="19" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D413" s="18" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E413" s="21"/>
       <c r="F413" s="21"/>
@@ -14694,13 +14699,13 @@
         <v>12</v>
       </c>
       <c r="B414" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C414" s="19" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D414" s="18" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E414" s="21"/>
       <c r="F414" s="21"/>
@@ -14732,13 +14737,13 @@
         <v>12</v>
       </c>
       <c r="B415" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C415" s="19" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D415" s="18" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E415" s="21"/>
       <c r="F415" s="21"/>
@@ -14770,13 +14775,13 @@
         <v>12</v>
       </c>
       <c r="B416" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C416" s="19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D416" s="18" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E416" s="21"/>
       <c r="F416" s="21"/>
@@ -14808,13 +14813,13 @@
         <v>12</v>
       </c>
       <c r="B417" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C417" s="19" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D417" s="18" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E417" s="21"/>
       <c r="F417" s="21"/>
@@ -14846,13 +14851,13 @@
         <v>12</v>
       </c>
       <c r="B418" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C418" s="19" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D418" s="18" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E418" s="21"/>
       <c r="F418" s="21"/>
@@ -14884,13 +14889,13 @@
         <v>12</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C419" s="24" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D419" s="23" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E419" s="23" t="s">
         <v>134</v>
@@ -14924,13 +14929,13 @@
         <v>12</v>
       </c>
       <c r="B420" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C420" s="19" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D420" s="18" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E420" s="21"/>
       <c r="F420" s="21"/>
@@ -14962,13 +14967,13 @@
         <v>12</v>
       </c>
       <c r="B421" s="18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D421" s="18" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E421" s="21"/>
       <c r="F421" s="21"/>
@@ -15000,13 +15005,13 @@
         <v>12</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C422" s="24" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D422" s="23" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E422" s="25"/>
       <c r="F422" s="51"/>
@@ -15038,10 +15043,10 @@
         <v>12</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C423" s="24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="23" t="s">
@@ -15073,26 +15078,28 @@
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B424" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C424" s="46" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D424" s="45" t="s">
-        <v>710</v>
-      </c>
-      <c r="E424" s="47"/>
+        <v>387</v>
+      </c>
+      <c r="E424" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="F424" s="47"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B425" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C425" s="46" t="s">
         <v>711</v>
@@ -15105,10 +15112,10 @@
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B426" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C426" s="30" t="s">
         <v>713</v>
@@ -15121,10 +15128,10 @@
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B427" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C427" s="46" t="s">
         <v>715</v>
@@ -15132,15 +15139,17 @@
       <c r="D427" s="45" t="s">
         <v>716</v>
       </c>
-      <c r="E427" s="47"/>
+      <c r="E427" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="F427" s="47"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B428" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C428" s="30" t="s">
         <v>717</v>
@@ -15153,10 +15162,10 @@
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B429" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C429" s="46" t="s">
         <v>719</v>
@@ -15164,15 +15173,17 @@
       <c r="D429" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="E429" s="47"/>
+      <c r="E429" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="F429" s="47"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B430" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C430" s="30" t="s">
         <v>721</v>
@@ -15185,10 +15196,10 @@
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B431" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C431" s="46" t="s">
         <v>723</v>
@@ -15196,15 +15207,17 @@
       <c r="D431" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="E431" s="47"/>
+      <c r="E431" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="F431" s="47"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B432" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C432" s="30" t="s">
         <v>725</v>
@@ -15212,168 +15225,166 @@
       <c r="D432" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="E432" s="28" t="s">
+      <c r="E432" s="28"/>
+      <c r="F432" s="20"/>
+    </row>
+    <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="B433" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="C433" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="F432" s="20"/>
-    </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="B433" s="28" t="s">
-        <v>708</v>
-      </c>
-      <c r="C433" s="30" t="s">
+      <c r="D433" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="D433" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="E433" s="20"/>
+      <c r="E433" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="F433" s="20"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B434" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C434" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="D434" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="D434" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="E434" s="20"/>
+      <c r="E434" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="F434" s="20"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B435" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C435" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="D435" s="28" t="s">
         <v>732</v>
-      </c>
-      <c r="D435" s="28" t="s">
-        <v>733</v>
       </c>
       <c r="E435" s="20"/>
       <c r="F435" s="20"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B436" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C436" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D436" s="45" t="s">
-        <v>733</v>
-      </c>
-      <c r="E436" s="45" t="s">
-        <v>727</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="E436" s="45"/>
       <c r="F436" s="47"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B437" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C437" s="46" t="s">
+        <v>734</v>
+      </c>
+      <c r="D437" s="45" t="s">
         <v>735</v>
-      </c>
-      <c r="D437" s="45" t="s">
-        <v>736</v>
       </c>
       <c r="E437" s="47"/>
       <c r="F437" s="47"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B438" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C438" s="46" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D438" s="45" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E438" s="47"/>
       <c r="F438" s="47"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B439" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C439" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D439" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="D439" s="45" t="s">
-        <v>739</v>
-      </c>
-      <c r="E439" s="28" t="s">
-        <v>727</v>
-      </c>
+      <c r="E439" s="28"/>
       <c r="F439" s="20"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="62" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B440" s="62" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C440" s="63" t="s">
+        <v>739</v>
+      </c>
+      <c r="D440" s="62" t="s">
         <v>740</v>
-      </c>
-      <c r="D440" s="62" t="s">
-        <v>741</v>
       </c>
       <c r="E440" s="64"/>
       <c r="F440" s="64"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B441" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C441" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="D441" s="28" t="s">
         <v>742</v>
-      </c>
-      <c r="D441" s="28" t="s">
-        <v>743</v>
       </c>
       <c r="E441" s="20"/>
       <c r="F441" s="20"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B442" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C442" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D442" s="28"/>
       <c r="E442" s="20"/>
@@ -15381,13 +15392,13 @@
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B443" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C443" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D443" s="47"/>
       <c r="E443" s="47"/>
@@ -15395,29 +15406,29 @@
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B444" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C444" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="D444" s="28" t="s">
         <v>746</v>
-      </c>
-      <c r="D444" s="28" t="s">
-        <v>747</v>
       </c>
       <c r="E444" s="20"/>
       <c r="F444" s="20"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B445" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C445" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D445" s="20"/>
       <c r="E445" s="20"/>
@@ -15425,13 +15436,13 @@
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B446" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C446" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D446" s="20"/>
       <c r="E446" s="20"/>
@@ -15439,45 +15450,45 @@
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B447" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C447" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="D447" s="28" t="s">
         <v>750</v>
-      </c>
-      <c r="D447" s="28" t="s">
-        <v>751</v>
       </c>
       <c r="E447" s="20"/>
       <c r="F447" s="20"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B448" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C448" s="46" t="s">
+        <v>751</v>
+      </c>
+      <c r="D448" s="45" t="s">
         <v>752</v>
-      </c>
-      <c r="D448" s="45" t="s">
-        <v>753</v>
       </c>
       <c r="E448" s="47"/>
       <c r="F448" s="47"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B449" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C449" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D449" s="47"/>
       <c r="E449" s="47"/>
@@ -15485,26 +15496,26 @@
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B450" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C450" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="D450" s="45" t="s">
         <v>755</v>
-      </c>
-      <c r="D450" s="45" t="s">
-        <v>756</v>
       </c>
       <c r="E450" s="47"/>
       <c r="F450" s="47"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B451" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C451" s="46" t="s">
         <v>251</v>
@@ -15515,13 +15526,13 @@
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B452" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C452" s="46" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D452" s="47"/>
       <c r="E452" s="45" t="s">
@@ -15531,61 +15542,61 @@
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B453" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C453" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="D453" s="45" t="s">
         <v>758</v>
-      </c>
-      <c r="D453" s="45" t="s">
-        <v>759</v>
       </c>
       <c r="E453" s="47"/>
       <c r="F453" s="47"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B454" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C454" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="D454" s="45" t="s">
         <v>760</v>
-      </c>
-      <c r="D454" s="45" t="s">
-        <v>761</v>
       </c>
       <c r="E454" s="47"/>
       <c r="F454" s="47"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B455" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C455" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="D455" s="45" t="s">
         <v>762</v>
-      </c>
-      <c r="D455" s="45" t="s">
-        <v>763</v>
       </c>
       <c r="E455" s="47"/>
       <c r="F455" s="47"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B456" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C456" s="46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D456" s="47"/>
       <c r="E456" s="47"/>
@@ -15596,7 +15607,7 @@
         <v>14</v>
       </c>
       <c r="B457" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C457" s="55"/>
       <c r="D457" s="55"/>
@@ -15608,7 +15619,7 @@
         <v>14</v>
       </c>
       <c r="B458" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C458" s="55"/>
       <c r="D458" s="55"/>
@@ -15620,7 +15631,7 @@
         <v>14</v>
       </c>
       <c r="B459" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C459" s="55"/>
       <c r="D459" s="55"/>
@@ -15632,7 +15643,7 @@
         <v>14</v>
       </c>
       <c r="B460" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C460" s="55"/>
       <c r="D460" s="55"/>
@@ -15644,7 +15655,7 @@
         <v>14</v>
       </c>
       <c r="B461" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C461" s="55"/>
       <c r="D461" s="55"/>
@@ -15656,7 +15667,7 @@
         <v>14</v>
       </c>
       <c r="B462" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C462" s="55"/>
       <c r="D462" s="55"/>
@@ -15668,7 +15679,7 @@
         <v>14</v>
       </c>
       <c r="B463" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C463" s="55"/>
       <c r="D463" s="55"/>
@@ -15680,7 +15691,7 @@
         <v>14</v>
       </c>
       <c r="B464" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C464" s="55"/>
       <c r="D464" s="55"/>
@@ -15692,7 +15703,7 @@
         <v>14</v>
       </c>
       <c r="B465" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C465" s="55"/>
       <c r="D465" s="55"/>
@@ -15704,7 +15715,7 @@
         <v>14</v>
       </c>
       <c r="B466" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C466" s="55"/>
       <c r="D466" s="55"/>
@@ -15716,7 +15727,7 @@
         <v>14</v>
       </c>
       <c r="B467" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C467" s="55"/>
       <c r="D467" s="55"/>
@@ -15728,7 +15739,7 @@
         <v>14</v>
       </c>
       <c r="B468" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C468" s="55"/>
       <c r="D468" s="55"/>
@@ -15740,7 +15751,7 @@
         <v>14</v>
       </c>
       <c r="B469" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C469" s="55"/>
       <c r="D469" s="55"/>
@@ -15752,13 +15763,13 @@
         <v>15</v>
       </c>
       <c r="B470" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C470" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="C470" s="19" t="s">
+      <c r="D470" s="18" t="s">
         <v>767</v>
-      </c>
-      <c r="D470" s="18" t="s">
-        <v>768</v>
       </c>
       <c r="E470" s="21"/>
       <c r="F470" s="21"/>
@@ -15790,13 +15801,13 @@
         <v>15</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C471" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="D471" s="18" t="s">
         <v>769</v>
-      </c>
-      <c r="D471" s="18" t="s">
-        <v>770</v>
       </c>
       <c r="E471" s="21"/>
       <c r="F471" s="21"/>
@@ -15828,13 +15839,13 @@
         <v>15</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C472" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="D472" s="18" t="s">
         <v>771</v>
-      </c>
-      <c r="D472" s="18" t="s">
-        <v>772</v>
       </c>
       <c r="E472" s="21"/>
       <c r="F472" s="21"/>
@@ -15866,13 +15877,13 @@
         <v>15</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C473" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="D473" s="18" t="s">
         <v>773</v>
-      </c>
-      <c r="D473" s="18" t="s">
-        <v>774</v>
       </c>
       <c r="E473" s="21"/>
       <c r="F473" s="21"/>
@@ -15904,13 +15915,13 @@
         <v>15</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C474" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="D474" s="18" t="s">
         <v>775</v>
-      </c>
-      <c r="D474" s="18" t="s">
-        <v>776</v>
       </c>
       <c r="E474" s="21"/>
       <c r="F474" s="21"/>
@@ -15942,13 +15953,13 @@
         <v>15</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C475" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="D475" s="18" t="s">
         <v>777</v>
-      </c>
-      <c r="D475" s="18" t="s">
-        <v>778</v>
       </c>
       <c r="E475" s="21"/>
       <c r="F475" s="21"/>
@@ -15980,13 +15991,13 @@
         <v>15</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C476" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="D476" s="18" t="s">
         <v>779</v>
-      </c>
-      <c r="D476" s="18" t="s">
-        <v>780</v>
       </c>
       <c r="E476" s="21"/>
       <c r="F476" s="21"/>
@@ -16018,13 +16029,13 @@
         <v>15</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C477" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="D477" s="18" t="s">
         <v>781</v>
-      </c>
-      <c r="D477" s="18" t="s">
-        <v>782</v>
       </c>
       <c r="E477" s="21"/>
       <c r="F477" s="21"/>
@@ -16056,13 +16067,13 @@
         <v>15</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C478" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="D478" s="18" t="s">
         <v>783</v>
-      </c>
-      <c r="D478" s="18" t="s">
-        <v>784</v>
       </c>
       <c r="E478" s="21"/>
       <c r="F478" s="21"/>
@@ -16094,13 +16105,13 @@
         <v>15</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C479" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="D479" s="18" t="s">
         <v>785</v>
-      </c>
-      <c r="D479" s="18" t="s">
-        <v>786</v>
       </c>
       <c r="E479" s="21"/>
       <c r="F479" s="21"/>
@@ -16132,13 +16143,13 @@
         <v>15</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C480" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="D480" s="18" t="s">
         <v>787</v>
-      </c>
-      <c r="D480" s="18" t="s">
-        <v>788</v>
       </c>
       <c r="E480" s="21"/>
       <c r="F480" s="21"/>
@@ -16170,13 +16181,13 @@
         <v>15</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C481" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="D481" s="18" t="s">
         <v>789</v>
-      </c>
-      <c r="D481" s="18" t="s">
-        <v>790</v>
       </c>
       <c r="E481" s="21"/>
       <c r="F481" s="21"/>
@@ -16208,13 +16219,13 @@
         <v>15</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C482" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="D482" s="18" t="s">
         <v>791</v>
-      </c>
-      <c r="D482" s="18" t="s">
-        <v>792</v>
       </c>
       <c r="E482" s="21"/>
       <c r="F482" s="21"/>
@@ -16246,13 +16257,13 @@
         <v>15</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C483" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="D483" s="18" t="s">
         <v>793</v>
-      </c>
-      <c r="D483" s="18" t="s">
-        <v>794</v>
       </c>
       <c r="E483" s="21"/>
       <c r="F483" s="21"/>
@@ -16284,13 +16295,13 @@
         <v>15</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C484" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="D484" s="18" t="s">
         <v>795</v>
-      </c>
-      <c r="D484" s="18" t="s">
-        <v>796</v>
       </c>
       <c r="E484" s="21"/>
       <c r="F484" s="21"/>
@@ -16322,13 +16333,13 @@
         <v>15</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C485" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="D485" s="18" t="s">
         <v>797</v>
-      </c>
-      <c r="D485" s="18" t="s">
-        <v>798</v>
       </c>
       <c r="E485" s="21"/>
       <c r="F485" s="21"/>
@@ -16360,13 +16371,13 @@
         <v>15</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C486" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="D486" s="18" t="s">
         <v>799</v>
-      </c>
-      <c r="D486" s="18" t="s">
-        <v>800</v>
       </c>
       <c r="E486" s="21"/>
       <c r="F486" s="21"/>
@@ -16398,13 +16409,13 @@
         <v>15</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C487" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="D487" s="18" t="s">
         <v>801</v>
-      </c>
-      <c r="D487" s="18" t="s">
-        <v>802</v>
       </c>
       <c r="E487" s="21"/>
       <c r="F487" s="21"/>
@@ -16436,13 +16447,13 @@
         <v>15</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C488" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="D488" s="18" t="s">
         <v>803</v>
-      </c>
-      <c r="D488" s="18" t="s">
-        <v>804</v>
       </c>
       <c r="E488" s="21"/>
       <c r="F488" s="21"/>
@@ -16474,13 +16485,13 @@
         <v>15</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C489" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="D489" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="D489" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="E489" s="21"/>
       <c r="F489" s="21"/>
@@ -16515,10 +16526,10 @@
         <v>45</v>
       </c>
       <c r="C490" s="65" t="s">
+        <v>806</v>
+      </c>
+      <c r="D490" s="56" t="s">
         <v>807</v>
-      </c>
-      <c r="D490" s="56" t="s">
-        <v>808</v>
       </c>
       <c r="E490" s="55"/>
       <c r="F490" s="55"/>
@@ -16531,10 +16542,10 @@
         <v>45</v>
       </c>
       <c r="C491" s="65" t="s">
+        <v>808</v>
+      </c>
+      <c r="D491" s="56" t="s">
         <v>809</v>
-      </c>
-      <c r="D491" s="56" t="s">
-        <v>810</v>
       </c>
       <c r="E491" s="55"/>
       <c r="F491" s="55"/>
@@ -16547,10 +16558,10 @@
         <v>45</v>
       </c>
       <c r="C492" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="D492" s="56" t="s">
         <v>811</v>
-      </c>
-      <c r="D492" s="56" t="s">
-        <v>812</v>
       </c>
       <c r="E492" s="55"/>
       <c r="F492" s="55"/>
@@ -16563,10 +16574,10 @@
         <v>45</v>
       </c>
       <c r="C493" s="65" t="s">
+        <v>812</v>
+      </c>
+      <c r="D493" s="56" t="s">
         <v>813</v>
-      </c>
-      <c r="D493" s="56" t="s">
-        <v>814</v>
       </c>
       <c r="E493" s="55"/>
       <c r="F493" s="55"/>
@@ -16579,10 +16590,10 @@
         <v>45</v>
       </c>
       <c r="C494" s="65" t="s">
+        <v>814</v>
+      </c>
+      <c r="D494" s="66" t="s">
         <v>815</v>
-      </c>
-      <c r="D494" s="66" t="s">
-        <v>816</v>
       </c>
       <c r="E494" s="55"/>
       <c r="F494" s="55"/>
@@ -16595,7 +16606,7 @@
         <v>45</v>
       </c>
       <c r="C495" s="65" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D495" s="55"/>
       <c r="E495" s="55"/>
@@ -16609,10 +16620,10 @@
         <v>45</v>
       </c>
       <c r="C496" s="67" t="s">
+        <v>817</v>
+      </c>
+      <c r="D496" s="28" t="s">
         <v>818</v>
-      </c>
-      <c r="D496" s="28" t="s">
-        <v>819</v>
       </c>
       <c r="E496" s="55"/>
       <c r="F496" s="55"/>
@@ -16625,7 +16636,7 @@
         <v>45</v>
       </c>
       <c r="C497" s="65" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D497" s="56"/>
       <c r="E497" s="55"/>
@@ -16639,7 +16650,7 @@
         <v>45</v>
       </c>
       <c r="C498" s="65" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D498" s="56"/>
       <c r="E498" s="55"/>
@@ -16653,7 +16664,7 @@
         <v>45</v>
       </c>
       <c r="C499" s="65" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D499" s="55"/>
       <c r="E499" s="55"/>
@@ -16664,10 +16675,10 @@
         <v>16</v>
       </c>
       <c r="B500" s="62" t="s">
+        <v>822</v>
+      </c>
+      <c r="C500" s="68" t="s">
         <v>823</v>
-      </c>
-      <c r="C500" s="68" t="s">
-        <v>824</v>
       </c>
       <c r="D500" s="69"/>
       <c r="E500" s="64"/>
@@ -16678,10 +16689,10 @@
         <v>16</v>
       </c>
       <c r="B501" s="62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C501" s="68" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D501" s="69"/>
       <c r="E501" s="64"/>
@@ -16692,10 +16703,10 @@
         <v>16</v>
       </c>
       <c r="B502" s="62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C502" s="70" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D502" s="70"/>
       <c r="E502" s="64"/>
@@ -16706,10 +16717,10 @@
         <v>16</v>
       </c>
       <c r="B503" s="62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C503" s="68" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D503" s="69"/>
       <c r="E503" s="64"/>
@@ -16720,10 +16731,10 @@
         <v>16</v>
       </c>
       <c r="B504" s="62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C504" s="68" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D504" s="70"/>
       <c r="E504" s="64"/>
@@ -16734,10 +16745,10 @@
         <v>16</v>
       </c>
       <c r="B505" s="62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C505" s="68" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D505" s="69"/>
       <c r="E505" s="69"/>
@@ -16748,13 +16759,13 @@
         <v>16</v>
       </c>
       <c r="B506" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C506" s="71" t="s">
+        <v>829</v>
+      </c>
+      <c r="D506" s="71" t="s">
         <v>830</v>
-      </c>
-      <c r="D506" s="71" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16762,10 +16773,10 @@
         <v>16</v>
       </c>
       <c r="B507" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C507" s="71" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16773,10 +16784,10 @@
         <v>16</v>
       </c>
       <c r="B508" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C508" s="71" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16784,10 +16795,10 @@
         <v>16</v>
       </c>
       <c r="B509" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C509" s="71" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16795,10 +16806,10 @@
         <v>16</v>
       </c>
       <c r="B510" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C510" s="71" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16806,10 +16817,10 @@
         <v>16</v>
       </c>
       <c r="B511" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C511" s="71" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16817,10 +16828,10 @@
         <v>17</v>
       </c>
       <c r="B512" s="56" t="s">
+        <v>836</v>
+      </c>
+      <c r="C512" s="65" t="s">
         <v>837</v>
-      </c>
-      <c r="C512" s="65" t="s">
-        <v>838</v>
       </c>
       <c r="D512" s="55"/>
       <c r="E512" s="55"/>
@@ -16831,13 +16842,13 @@
         <v>17</v>
       </c>
       <c r="B513" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C513" s="65" t="s">
+        <v>838</v>
+      </c>
+      <c r="D513" s="56" t="s">
         <v>839</v>
-      </c>
-      <c r="D513" s="56" t="s">
-        <v>840</v>
       </c>
       <c r="E513" s="55"/>
       <c r="F513" s="55"/>
@@ -16847,13 +16858,13 @@
         <v>17</v>
       </c>
       <c r="B514" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C514" s="65" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D514" s="56" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E514" s="55"/>
       <c r="F514" s="55"/>
@@ -16863,10 +16874,10 @@
         <v>17</v>
       </c>
       <c r="B515" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C515" s="65" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D515" s="55"/>
       <c r="E515" s="55"/>
@@ -16877,10 +16888,10 @@
         <v>17</v>
       </c>
       <c r="B516" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C516" s="65" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D516" s="55"/>
       <c r="E516" s="55"/>
@@ -16891,10 +16902,10 @@
         <v>17</v>
       </c>
       <c r="B517" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C517" s="65" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D517" s="55"/>
       <c r="E517" s="55"/>
@@ -16905,10 +16916,10 @@
         <v>17</v>
       </c>
       <c r="B518" s="56" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C518" s="65" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D518" s="55"/>
       <c r="E518" s="55"/>
@@ -16919,10 +16930,10 @@
         <v>17</v>
       </c>
       <c r="B519" s="66" t="s">
+        <v>845</v>
+      </c>
+      <c r="C519" s="71" t="s">
         <v>846</v>
-      </c>
-      <c r="C519" s="71" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16930,10 +16941,10 @@
         <v>17</v>
       </c>
       <c r="B520" s="66" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C520" s="71" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16941,10 +16952,10 @@
         <v>17</v>
       </c>
       <c r="B521" s="66" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C521" s="71" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16952,10 +16963,10 @@
         <v>18</v>
       </c>
       <c r="B522" s="66" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C522" s="71" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16963,7 +16974,7 @@
         <v>18</v>
       </c>
       <c r="B523" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16971,7 +16982,7 @@
         <v>18</v>
       </c>
       <c r="B524" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16979,7 +16990,7 @@
         <v>18</v>
       </c>
       <c r="B525" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16987,7 +16998,7 @@
         <v>18</v>
       </c>
       <c r="B526" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16995,7 +17006,7 @@
         <v>18</v>
       </c>
       <c r="B527" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17003,7 +17014,7 @@
         <v>18</v>
       </c>
       <c r="B528" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17011,7 +17022,7 @@
         <v>18</v>
       </c>
       <c r="B529" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17019,7 +17030,7 @@
         <v>18</v>
       </c>
       <c r="B530" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17027,7 +17038,7 @@
         <v>18</v>
       </c>
       <c r="B531" s="66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17035,7 +17046,7 @@
         <v>19</v>
       </c>
       <c r="B532" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17043,7 +17054,7 @@
         <v>19</v>
       </c>
       <c r="B533" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17051,7 +17062,7 @@
         <v>19</v>
       </c>
       <c r="B534" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17059,7 +17070,7 @@
         <v>19</v>
       </c>
       <c r="B535" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17067,7 +17078,7 @@
         <v>19</v>
       </c>
       <c r="B536" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17075,7 +17086,7 @@
         <v>19</v>
       </c>
       <c r="B537" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17083,7 +17094,7 @@
         <v>19</v>
       </c>
       <c r="B538" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17091,7 +17102,7 @@
         <v>19</v>
       </c>
       <c r="B539" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17099,7 +17110,7 @@
         <v>19</v>
       </c>
       <c r="B540" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17107,7 +17118,7 @@
         <v>19</v>
       </c>
       <c r="B541" s="66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17115,10 +17126,10 @@
         <v>20</v>
       </c>
       <c r="B542" s="66" t="s">
+        <v>852</v>
+      </c>
+      <c r="C542" s="71" t="s">
         <v>853</v>
-      </c>
-      <c r="C542" s="71" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17126,10 +17137,10 @@
         <v>20</v>
       </c>
       <c r="B543" s="66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C543" s="71" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17137,7 +17148,7 @@
         <v>20</v>
       </c>
       <c r="B544" s="66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17145,7 +17156,7 @@
         <v>20</v>
       </c>
       <c r="B545" s="72" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17153,7 +17164,7 @@
         <v>20</v>
       </c>
       <c r="B546" s="66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17161,7 +17172,7 @@
         <v>20</v>
       </c>
       <c r="B547" s="66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17169,7 +17180,7 @@
         <v>20</v>
       </c>
       <c r="B548" s="66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17177,7 +17188,7 @@
         <v>20</v>
       </c>
       <c r="B549" s="66" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17185,7 +17196,7 @@
         <v>2</v>
       </c>
       <c r="B550" s="26" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C550" s="27" t="s">
         <v>132</v>
@@ -17201,13 +17212,13 @@
         <v>8</v>
       </c>
       <c r="B551" s="62" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C551" s="63" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D551" s="62" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E551" s="69"/>
       <c r="F551" s="69"/>
@@ -17217,13 +17228,13 @@
         <v>8</v>
       </c>
       <c r="B552" s="62" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C552" s="63" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D552" s="62" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E552" s="69"/>
       <c r="F552" s="69"/>
@@ -17233,13 +17244,13 @@
         <v>9</v>
       </c>
       <c r="B553" s="26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C553" s="54" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D553" s="26" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17247,10 +17258,10 @@
         <v>9</v>
       </c>
       <c r="B554" s="26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C554" s="54" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D554" s="26"/>
       <c r="E554" s="17"/>
@@ -17261,10 +17272,10 @@
         <v>9</v>
       </c>
       <c r="B555" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C555" s="54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D555" s="26"/>
       <c r="E555" s="17"/>
@@ -17293,7 +17304,7 @@
         <v>1</v>
       </c>
       <c r="B557" s="15" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C557" s="16" t="s">
         <v>118</v>
@@ -17309,10 +17320,10 @@
         <v>1</v>
       </c>
       <c r="B558" s="73" t="s">
+        <v>862</v>
+      </c>
+      <c r="C558" s="74" t="s">
         <v>863</v>
-      </c>
-      <c r="C558" s="74" t="s">
-        <v>864</v>
       </c>
       <c r="D558" s="17"/>
       <c r="E558" s="17"/>
@@ -17323,13 +17334,13 @@
         <v>8</v>
       </c>
       <c r="B559" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C559" s="54" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D559" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E559" s="51"/>
       <c r="F559" s="51"/>
@@ -17361,13 +17372,13 @@
         <v>12</v>
       </c>
       <c r="B560" s="28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C560" s="30" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D560" s="28" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E560" s="20"/>
       <c r="F560" s="20"/>
@@ -17399,13 +17410,13 @@
         <v>12</v>
       </c>
       <c r="B561" s="28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C561" s="30" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D561" s="28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E561" s="28" t="s">
         <v>134</v>
@@ -17512,27 +17523,27 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="71" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="71" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="71" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="71" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="66" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17796,7 +17807,7 @@
     <hyperlink ref="C205" r:id="rId207" display="https://www.geeksforgeeks.org/count-number-of-ways-to-partition-a-set-into-k-subsets/"/>
     <hyperlink ref="C206" r:id="rId208" display="https://www.geeksforgeeks.org/dynamic-programming-set-12-longest-palindromic-subsequence/"/>
     <hyperlink ref="C207" r:id="rId209" display="https://www.geeksforgeeks.org/dynamic-programming-set-11-egg-dropping-puzzle/"/>
-    <hyperlink ref="C208" r:id="rId210" display="https://www.geeksforgeeks.org/dynamic-programming-set-21-box-stacking-problem/"/>
+    <hyperlink ref="C208" r:id="rId210" display="https://www.geeksforgeeks.org/dynamic-programming-set-21-box-stacking-problem/&lt;"/>
     <hyperlink ref="C209" r:id="rId211" display="https://www.geeksforgeeks.org/dynamic-programming-set-24-optimal-binary-search-tree/"/>
     <hyperlink ref="C210" r:id="rId212" display="https://www.geeksforgeeks.org/dynamic-programming-set-28-minimum-insertions-to-form-a-palindrome/"/>
     <hyperlink ref="C211" r:id="rId213" display="https://www.geeksforgeeks.org/dynamic-programming-set-36-cut-a-rope-to-maximize-product/"/>
@@ -18146,1089 +18157,1089 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="86" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="86" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="86" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="86" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="86" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="86" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="86" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="86" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="86" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="86" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="86" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="86" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="86" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="86" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="86" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="86" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="86" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="86" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="86" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="86" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="86" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="86" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="86" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="86" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="86" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="86" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="86" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="86" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="86" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="86" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="86" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="86" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="86" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="86" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="86" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="86" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="86" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="86" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="86" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="86" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="86" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="86" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="86" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="86" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="86" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="86" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="86" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="86" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="86" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="86" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="86" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="86" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="86" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="86" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="86" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="86" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="86" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="86" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="86" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="86" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="86" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="86" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="86" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="86" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="86" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="86" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="86" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="86" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="86" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="86" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="86" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="86" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="86" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="86" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="86" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="86" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="86" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="86" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="86" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="86" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="86" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="86" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="86" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="86" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="86" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="86" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="86" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="86" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="86" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="86" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="86" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="86" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="86" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="86" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="86" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="86" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="86" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="86" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="86" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="86" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="86" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="86" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="86" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="86" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="86" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="86" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="86" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="86" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="86" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="86" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="86" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="86" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="86" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="86" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="86" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="86" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="86" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="86" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="86" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="86" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="86" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="86" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="86" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="86" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="86" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="86" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="86" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="86" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="86" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="86" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="86" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="86" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="86" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="86" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="86" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="86" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="86" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="86" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="86" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="86" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="86" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="86" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="86" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="86" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="86" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="86" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="86" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="86" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="86" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="86" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="86" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="86" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="86" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="86" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="86" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="86" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="86" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="86" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="86" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="86" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="86" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="86" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="86" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="86" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="86" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="86" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="86" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="86" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="86" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="86" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="86" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="86" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="86" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="86" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="86" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="86" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="86" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="86" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="86" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="86" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="86" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="86" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="86" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="86" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="86" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="86" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="86" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="86" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="86" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="86" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="86" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="86" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="86" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="86" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="86" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="86" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="86" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="86" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="86" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="86" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="86" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="86" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="86" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="86" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="86" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="86" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="86" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="86" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="86" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="86" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="86" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>

--- a/interview prep.xlsx
+++ b/interview prep.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1085">
   <si>
     <t xml:space="preserve">This list is prepared by pepcoding for helping students prepare for upcoming interviews.
 Going forward, pepcoding has decided to make all it's current and future content available to students free of cost.
@@ -2227,6 +2227,9 @@
   </si>
   <si>
     <t xml:space="preserve">mst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link not availabls</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.hackerearth.com/practice/algorithms/graphs/minimum-spanning-tree/practice-problems/algorithm/mr-president/</t>
@@ -4003,11 +4006,11 @@
   </sheetPr>
   <dimension ref="A1:AB929"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C414" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E430" activeCellId="0" sqref="E430"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E438" activeCellId="0" sqref="E438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
@@ -15157,7 +15160,9 @@
       <c r="D428" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="E428" s="20"/>
+      <c r="E428" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="F428" s="20"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15191,7 +15196,9 @@
       <c r="D430" s="28" t="s">
         <v>722</v>
       </c>
-      <c r="E430" s="20"/>
+      <c r="E430" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="F430" s="20"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15277,7 +15284,9 @@
       <c r="D435" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="E435" s="20"/>
+      <c r="E435" s="20" t="s">
+        <v>733</v>
+      </c>
       <c r="F435" s="20"/>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15288,7 +15297,7 @@
         <v>709</v>
       </c>
       <c r="C436" s="46" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D436" s="45" t="s">
         <v>732</v>
@@ -15304,12 +15313,14 @@
         <v>709</v>
       </c>
       <c r="C437" s="46" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D437" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="E437" s="47"/>
+        <v>736</v>
+      </c>
+      <c r="E437" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="F437" s="47"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15320,10 +15331,10 @@
         <v>709</v>
       </c>
       <c r="C438" s="46" t="s">
+        <v>737</v>
+      </c>
+      <c r="D438" s="45" t="s">
         <v>736</v>
-      </c>
-      <c r="D438" s="45" t="s">
-        <v>735</v>
       </c>
       <c r="E438" s="47"/>
       <c r="F438" s="47"/>
@@ -15336,10 +15347,10 @@
         <v>709</v>
       </c>
       <c r="C439" s="30" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D439" s="45" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E439" s="28"/>
       <c r="F439" s="20"/>
@@ -15352,10 +15363,10 @@
         <v>709</v>
       </c>
       <c r="C440" s="63" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D440" s="62" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E440" s="64"/>
       <c r="F440" s="64"/>
@@ -15368,10 +15379,10 @@
         <v>709</v>
       </c>
       <c r="C441" s="30" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D441" s="28" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E441" s="20"/>
       <c r="F441" s="20"/>
@@ -15384,7 +15395,7 @@
         <v>709</v>
       </c>
       <c r="C442" s="30" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D442" s="28"/>
       <c r="E442" s="20"/>
@@ -15398,7 +15409,7 @@
         <v>709</v>
       </c>
       <c r="C443" s="46" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D443" s="47"/>
       <c r="E443" s="47"/>
@@ -15412,10 +15423,10 @@
         <v>709</v>
       </c>
       <c r="C444" s="30" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D444" s="28" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E444" s="20"/>
       <c r="F444" s="20"/>
@@ -15428,7 +15439,7 @@
         <v>709</v>
       </c>
       <c r="C445" s="30" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D445" s="20"/>
       <c r="E445" s="20"/>
@@ -15442,7 +15453,7 @@
         <v>709</v>
       </c>
       <c r="C446" s="30" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D446" s="20"/>
       <c r="E446" s="20"/>
@@ -15456,10 +15467,10 @@
         <v>709</v>
       </c>
       <c r="C447" s="30" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D447" s="28" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E447" s="20"/>
       <c r="F447" s="20"/>
@@ -15472,10 +15483,10 @@
         <v>709</v>
       </c>
       <c r="C448" s="46" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D448" s="45" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E448" s="47"/>
       <c r="F448" s="47"/>
@@ -15488,7 +15499,7 @@
         <v>709</v>
       </c>
       <c r="C449" s="46" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D449" s="47"/>
       <c r="E449" s="47"/>
@@ -15502,10 +15513,10 @@
         <v>709</v>
       </c>
       <c r="C450" s="46" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D450" s="45" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E450" s="47"/>
       <c r="F450" s="47"/>
@@ -15532,7 +15543,7 @@
         <v>709</v>
       </c>
       <c r="C452" s="46" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D452" s="47"/>
       <c r="E452" s="45" t="s">
@@ -15548,10 +15559,10 @@
         <v>709</v>
       </c>
       <c r="C453" s="46" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D453" s="45" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E453" s="47"/>
       <c r="F453" s="47"/>
@@ -15564,10 +15575,10 @@
         <v>709</v>
       </c>
       <c r="C454" s="46" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D454" s="45" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E454" s="47"/>
       <c r="F454" s="47"/>
@@ -15580,10 +15591,10 @@
         <v>709</v>
       </c>
       <c r="C455" s="46" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D455" s="45" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E455" s="47"/>
       <c r="F455" s="47"/>
@@ -15596,7 +15607,7 @@
         <v>709</v>
       </c>
       <c r="C456" s="46" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D456" s="47"/>
       <c r="E456" s="47"/>
@@ -15607,7 +15618,7 @@
         <v>14</v>
       </c>
       <c r="B457" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C457" s="55"/>
       <c r="D457" s="55"/>
@@ -15619,7 +15630,7 @@
         <v>14</v>
       </c>
       <c r="B458" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C458" s="55"/>
       <c r="D458" s="55"/>
@@ -15631,7 +15642,7 @@
         <v>14</v>
       </c>
       <c r="B459" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C459" s="55"/>
       <c r="D459" s="55"/>
@@ -15643,7 +15654,7 @@
         <v>14</v>
       </c>
       <c r="B460" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C460" s="55"/>
       <c r="D460" s="55"/>
@@ -15655,7 +15666,7 @@
         <v>14</v>
       </c>
       <c r="B461" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C461" s="55"/>
       <c r="D461" s="55"/>
@@ -15667,7 +15678,7 @@
         <v>14</v>
       </c>
       <c r="B462" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C462" s="55"/>
       <c r="D462" s="55"/>
@@ -15679,7 +15690,7 @@
         <v>14</v>
       </c>
       <c r="B463" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C463" s="55"/>
       <c r="D463" s="55"/>
@@ -15691,7 +15702,7 @@
         <v>14</v>
       </c>
       <c r="B464" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C464" s="55"/>
       <c r="D464" s="55"/>
@@ -15703,7 +15714,7 @@
         <v>14</v>
       </c>
       <c r="B465" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C465" s="55"/>
       <c r="D465" s="55"/>
@@ -15715,7 +15726,7 @@
         <v>14</v>
       </c>
       <c r="B466" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C466" s="55"/>
       <c r="D466" s="55"/>
@@ -15727,7 +15738,7 @@
         <v>14</v>
       </c>
       <c r="B467" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C467" s="55"/>
       <c r="D467" s="55"/>
@@ -15739,7 +15750,7 @@
         <v>14</v>
       </c>
       <c r="B468" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C468" s="55"/>
       <c r="D468" s="55"/>
@@ -15751,7 +15762,7 @@
         <v>14</v>
       </c>
       <c r="B469" s="56" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C469" s="55"/>
       <c r="D469" s="55"/>
@@ -15763,13 +15774,13 @@
         <v>15</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C470" s="19" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E470" s="21"/>
       <c r="F470" s="21"/>
@@ -15801,13 +15812,13 @@
         <v>15</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C471" s="19" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D471" s="18" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E471" s="21"/>
       <c r="F471" s="21"/>
@@ -15839,13 +15850,13 @@
         <v>15</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C472" s="19" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D472" s="18" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E472" s="21"/>
       <c r="F472" s="21"/>
@@ -15877,13 +15888,13 @@
         <v>15</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C473" s="19" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D473" s="18" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E473" s="21"/>
       <c r="F473" s="21"/>
@@ -15915,13 +15926,13 @@
         <v>15</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C474" s="19" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D474" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E474" s="21"/>
       <c r="F474" s="21"/>
@@ -15953,13 +15964,13 @@
         <v>15</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C475" s="19" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D475" s="18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E475" s="21"/>
       <c r="F475" s="21"/>
@@ -15991,13 +16002,13 @@
         <v>15</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C476" s="19" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D476" s="18" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E476" s="21"/>
       <c r="F476" s="21"/>
@@ -16029,13 +16040,13 @@
         <v>15</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C477" s="19" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D477" s="18" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E477" s="21"/>
       <c r="F477" s="21"/>
@@ -16067,13 +16078,13 @@
         <v>15</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C478" s="19" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D478" s="18" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E478" s="21"/>
       <c r="F478" s="21"/>
@@ -16105,13 +16116,13 @@
         <v>15</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C479" s="19" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E479" s="21"/>
       <c r="F479" s="21"/>
@@ -16143,13 +16154,13 @@
         <v>15</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C480" s="19" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D480" s="18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E480" s="21"/>
       <c r="F480" s="21"/>
@@ -16181,13 +16192,13 @@
         <v>15</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D481" s="18" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E481" s="21"/>
       <c r="F481" s="21"/>
@@ -16219,13 +16230,13 @@
         <v>15</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C482" s="19" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D482" s="18" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E482" s="21"/>
       <c r="F482" s="21"/>
@@ -16257,13 +16268,13 @@
         <v>15</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C483" s="19" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D483" s="18" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E483" s="21"/>
       <c r="F483" s="21"/>
@@ -16295,13 +16306,13 @@
         <v>15</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C484" s="19" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D484" s="18" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E484" s="21"/>
       <c r="F484" s="21"/>
@@ -16333,13 +16344,13 @@
         <v>15</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C485" s="19" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D485" s="18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E485" s="21"/>
       <c r="F485" s="21"/>
@@ -16371,13 +16382,13 @@
         <v>15</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C486" s="19" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D486" s="18" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E486" s="21"/>
       <c r="F486" s="21"/>
@@ -16409,13 +16420,13 @@
         <v>15</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C487" s="19" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D487" s="18" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E487" s="21"/>
       <c r="F487" s="21"/>
@@ -16447,13 +16458,13 @@
         <v>15</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C488" s="19" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D488" s="18" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E488" s="21"/>
       <c r="F488" s="21"/>
@@ -16485,13 +16496,13 @@
         <v>15</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C489" s="19" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D489" s="18" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E489" s="21"/>
       <c r="F489" s="21"/>
@@ -16526,10 +16537,10 @@
         <v>45</v>
       </c>
       <c r="C490" s="65" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D490" s="56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E490" s="55"/>
       <c r="F490" s="55"/>
@@ -16542,10 +16553,10 @@
         <v>45</v>
       </c>
       <c r="C491" s="65" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D491" s="56" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E491" s="55"/>
       <c r="F491" s="55"/>
@@ -16558,10 +16569,10 @@
         <v>45</v>
       </c>
       <c r="C492" s="65" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D492" s="56" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E492" s="55"/>
       <c r="F492" s="55"/>
@@ -16574,10 +16585,10 @@
         <v>45</v>
       </c>
       <c r="C493" s="65" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D493" s="56" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E493" s="55"/>
       <c r="F493" s="55"/>
@@ -16590,10 +16601,10 @@
         <v>45</v>
       </c>
       <c r="C494" s="65" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D494" s="66" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E494" s="55"/>
       <c r="F494" s="55"/>
@@ -16606,7 +16617,7 @@
         <v>45</v>
       </c>
       <c r="C495" s="65" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D495" s="55"/>
       <c r="E495" s="55"/>
@@ -16620,10 +16631,10 @@
         <v>45</v>
       </c>
       <c r="C496" s="67" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D496" s="28" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E496" s="55"/>
       <c r="F496" s="55"/>
@@ -16636,7 +16647,7 @@
         <v>45</v>
       </c>
       <c r="C497" s="65" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D497" s="56"/>
       <c r="E497" s="55"/>
@@ -16650,7 +16661,7 @@
         <v>45</v>
       </c>
       <c r="C498" s="65" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D498" s="56"/>
       <c r="E498" s="55"/>
@@ -16664,7 +16675,7 @@
         <v>45</v>
       </c>
       <c r="C499" s="65" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D499" s="55"/>
       <c r="E499" s="55"/>
@@ -16675,10 +16686,10 @@
         <v>16</v>
       </c>
       <c r="B500" s="62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C500" s="68" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D500" s="69"/>
       <c r="E500" s="64"/>
@@ -16689,10 +16700,10 @@
         <v>16</v>
       </c>
       <c r="B501" s="62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C501" s="68" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D501" s="69"/>
       <c r="E501" s="64"/>
@@ -16703,10 +16714,10 @@
         <v>16</v>
       </c>
       <c r="B502" s="62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C502" s="70" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D502" s="70"/>
       <c r="E502" s="64"/>
@@ -16717,10 +16728,10 @@
         <v>16</v>
       </c>
       <c r="B503" s="62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C503" s="68" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D503" s="69"/>
       <c r="E503" s="64"/>
@@ -16731,10 +16742,10 @@
         <v>16</v>
       </c>
       <c r="B504" s="62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C504" s="68" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D504" s="70"/>
       <c r="E504" s="64"/>
@@ -16745,10 +16756,10 @@
         <v>16</v>
       </c>
       <c r="B505" s="62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C505" s="68" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D505" s="69"/>
       <c r="E505" s="69"/>
@@ -16759,13 +16770,13 @@
         <v>16</v>
       </c>
       <c r="B506" s="56" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C506" s="71" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D506" s="71" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16773,10 +16784,10 @@
         <v>16</v>
       </c>
       <c r="B507" s="56" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C507" s="71" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16784,10 +16795,10 @@
         <v>16</v>
       </c>
       <c r="B508" s="56" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C508" s="71" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16795,10 +16806,10 @@
         <v>16</v>
       </c>
       <c r="B509" s="56" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C509" s="71" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16806,10 +16817,10 @@
         <v>16</v>
       </c>
       <c r="B510" s="56" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C510" s="71" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16817,10 +16828,10 @@
         <v>16</v>
       </c>
       <c r="B511" s="56" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C511" s="71" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16828,10 +16839,10 @@
         <v>17</v>
       </c>
       <c r="B512" s="56" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C512" s="65" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D512" s="55"/>
       <c r="E512" s="55"/>
@@ -16842,13 +16853,13 @@
         <v>17</v>
       </c>
       <c r="B513" s="56" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C513" s="65" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D513" s="56" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E513" s="55"/>
       <c r="F513" s="55"/>
@@ -16858,13 +16869,13 @@
         <v>17</v>
       </c>
       <c r="B514" s="56" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C514" s="65" t="s">
+        <v>841</v>
+      </c>
+      <c r="D514" s="56" t="s">
         <v>840</v>
-      </c>
-      <c r="D514" s="56" t="s">
-        <v>839</v>
       </c>
       <c r="E514" s="55"/>
       <c r="F514" s="55"/>
@@ -16874,10 +16885,10 @@
         <v>17</v>
       </c>
       <c r="B515" s="56" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C515" s="65" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D515" s="55"/>
       <c r="E515" s="55"/>
@@ -16888,10 +16899,10 @@
         <v>17</v>
       </c>
       <c r="B516" s="56" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C516" s="65" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D516" s="55"/>
       <c r="E516" s="55"/>
@@ -16902,10 +16913,10 @@
         <v>17</v>
       </c>
       <c r="B517" s="56" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C517" s="65" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D517" s="55"/>
       <c r="E517" s="55"/>
@@ -16916,10 +16927,10 @@
         <v>17</v>
       </c>
       <c r="B518" s="56" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C518" s="65" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D518" s="55"/>
       <c r="E518" s="55"/>
@@ -16930,10 +16941,10 @@
         <v>17</v>
       </c>
       <c r="B519" s="66" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C519" s="71" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16941,10 +16952,10 @@
         <v>17</v>
       </c>
       <c r="B520" s="66" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C520" s="71" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16952,10 +16963,10 @@
         <v>17</v>
       </c>
       <c r="B521" s="66" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C521" s="71" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16963,10 +16974,10 @@
         <v>18</v>
       </c>
       <c r="B522" s="66" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C522" s="71" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16974,7 +16985,7 @@
         <v>18</v>
       </c>
       <c r="B523" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16982,7 +16993,7 @@
         <v>18</v>
       </c>
       <c r="B524" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16990,7 +17001,7 @@
         <v>18</v>
       </c>
       <c r="B525" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16998,7 +17009,7 @@
         <v>18</v>
       </c>
       <c r="B526" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17006,7 +17017,7 @@
         <v>18</v>
       </c>
       <c r="B527" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17014,7 +17025,7 @@
         <v>18</v>
       </c>
       <c r="B528" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17022,7 +17033,7 @@
         <v>18</v>
       </c>
       <c r="B529" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17030,7 +17041,7 @@
         <v>18</v>
       </c>
       <c r="B530" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17038,7 +17049,7 @@
         <v>18</v>
       </c>
       <c r="B531" s="66" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17046,7 +17057,7 @@
         <v>19</v>
       </c>
       <c r="B532" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17054,7 +17065,7 @@
         <v>19</v>
       </c>
       <c r="B533" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17062,7 +17073,7 @@
         <v>19</v>
       </c>
       <c r="B534" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17070,7 +17081,7 @@
         <v>19</v>
       </c>
       <c r="B535" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17078,7 +17089,7 @@
         <v>19</v>
       </c>
       <c r="B536" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17086,7 +17097,7 @@
         <v>19</v>
       </c>
       <c r="B537" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17094,7 +17105,7 @@
         <v>19</v>
       </c>
       <c r="B538" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17102,7 +17113,7 @@
         <v>19</v>
       </c>
       <c r="B539" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17110,7 +17121,7 @@
         <v>19</v>
       </c>
       <c r="B540" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17118,7 +17129,7 @@
         <v>19</v>
       </c>
       <c r="B541" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17126,10 +17137,10 @@
         <v>20</v>
       </c>
       <c r="B542" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C542" s="71" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17137,10 +17148,10 @@
         <v>20</v>
       </c>
       <c r="B543" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C543" s="71" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17148,7 +17159,7 @@
         <v>20</v>
       </c>
       <c r="B544" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17156,7 +17167,7 @@
         <v>20</v>
       </c>
       <c r="B545" s="72" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17164,7 +17175,7 @@
         <v>20</v>
       </c>
       <c r="B546" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17172,7 +17183,7 @@
         <v>20</v>
       </c>
       <c r="B547" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17180,7 +17191,7 @@
         <v>20</v>
       </c>
       <c r="B548" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17188,7 +17199,7 @@
         <v>20</v>
       </c>
       <c r="B549" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17196,7 +17207,7 @@
         <v>2</v>
       </c>
       <c r="B550" s="26" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C550" s="27" t="s">
         <v>132</v>
@@ -17212,7 +17223,7 @@
         <v>8</v>
       </c>
       <c r="B551" s="62" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C551" s="63" t="s">
         <v>444</v>
@@ -17228,7 +17239,7 @@
         <v>8</v>
       </c>
       <c r="B552" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C552" s="63" t="s">
         <v>463</v>
@@ -17244,7 +17255,7 @@
         <v>9</v>
       </c>
       <c r="B553" s="26" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C553" s="54" t="s">
         <v>484</v>
@@ -17258,7 +17269,7 @@
         <v>9</v>
       </c>
       <c r="B554" s="26" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C554" s="54" t="s">
         <v>532</v>
@@ -17272,7 +17283,7 @@
         <v>9</v>
       </c>
       <c r="B555" s="26" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C555" s="54" t="s">
         <v>533</v>
@@ -17304,7 +17315,7 @@
         <v>1</v>
       </c>
       <c r="B557" s="15" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C557" s="16" t="s">
         <v>118</v>
@@ -17320,10 +17331,10 @@
         <v>1</v>
       </c>
       <c r="B558" s="73" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C558" s="74" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D558" s="17"/>
       <c r="E558" s="17"/>
@@ -17523,27 +17534,27 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="71" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="71" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="71" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="71" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="66" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18157,1089 +18168,1089 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="86" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="86" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="86" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="86" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="86" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="86" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="86" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="86" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="86" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="86" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="86" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="86" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="86" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="86" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="86" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="86" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="86" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="86" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="86" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="86" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="86" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="86" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="86" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="86" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="86" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="86" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="86" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="86" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="86" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="86" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="86" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="86" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="86" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="86" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="86" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="86" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="86" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="86" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="86" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="86" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="86" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="86" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="86" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="86" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="86" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="86" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="86" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="86" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="86" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="86" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="86" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="86" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="86" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="86" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="86" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="86" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="86" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="86" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="86" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="86" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="86" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="86" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="86" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="86" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="86" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="86" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="86" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="86" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="86" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="86" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="86" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="86" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="86" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="86" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="86" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="86" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="86" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="86" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="86" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="86" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="86" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="86" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="86" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="86" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="86" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="86" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="86" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="86" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="86" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="86" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="86" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="86" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="86" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="86" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="86" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="86" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="86" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="86" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="86" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="86" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="86" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="86" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="86" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="86" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="86" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="86" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="86" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="86" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="86" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="86" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="86" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="86" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="86" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="86" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="86" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="86" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="86" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="86" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="86" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="86" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="86" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="86" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="86" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="86" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="86" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="86" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="86" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="86" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="86" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="86" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="86" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="86" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="86" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="86" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="86" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="86" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="86" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="86" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="86" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="86" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="86" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="86" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="86" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="86" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="86" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="86" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="86" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="86" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="86" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="86" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="86" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="86" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="86" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="86" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="86" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="86" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="86" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="86" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="86" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="86" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="86" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="86" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="86" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="86" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="86" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="86" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="86" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="86" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="86" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="86" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="86" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="86" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="86" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="86" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="86" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="86" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="86" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="86" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="86" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="86" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="86" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="86" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="86" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="86" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="86" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="86" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="86" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="86" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="86" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="86" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="86" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="86" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="86" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="86" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="86" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="86" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="86" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="86" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="86" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="86" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="86" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="86" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="86" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="86" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="86" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="86" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="86" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="86" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="86" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="86" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="86" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="86" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="86" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/interview prep.xlsx
+++ b/interview prep.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1085">
   <si>
     <t xml:space="preserve">This list is prepared by pepcoding for helping students prepare for upcoming interviews.
 Going forward, pepcoding has decided to make all it's current and future content available to students free of cost.
@@ -4006,11 +4006,11 @@
   </sheetPr>
   <dimension ref="A1:AB929"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C419" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E438" activeCellId="0" sqref="E438"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C217" activeCellId="0" sqref="C217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
@@ -10071,7 +10071,9 @@
       <c r="C210" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="D210" s="53"/>
+      <c r="D210" s="53" t="s">
+        <v>399</v>
+      </c>
       <c r="E210" s="47"/>
       <c r="F210" s="47"/>
     </row>
@@ -10085,7 +10087,9 @@
       <c r="C211" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="D211" s="53"/>
+      <c r="D211" s="53" t="s">
+        <v>399</v>
+      </c>
       <c r="E211" s="47"/>
       <c r="F211" s="47"/>
     </row>
@@ -10099,7 +10103,9 @@
       <c r="C212" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="D212" s="53"/>
+      <c r="D212" s="53" t="s">
+        <v>399</v>
+      </c>
       <c r="E212" s="47"/>
       <c r="F212" s="47"/>
     </row>
@@ -10113,7 +10119,9 @@
       <c r="C213" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="D213" s="53"/>
+      <c r="D213" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="E213" s="47"/>
       <c r="F213" s="47"/>
     </row>
@@ -10127,7 +10135,9 @@
       <c r="C214" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="D214" s="53"/>
+      <c r="D214" s="53" t="s">
+        <v>399</v>
+      </c>
       <c r="E214" s="47"/>
       <c r="F214" s="47"/>
     </row>
@@ -10155,7 +10165,9 @@
       <c r="C216" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="D216" s="53"/>
+      <c r="D216" s="53" t="s">
+        <v>399</v>
+      </c>
       <c r="E216" s="47"/>
       <c r="F216" s="46" t="s">
         <v>411</v>
@@ -18168,7 +18180,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.71"/>
   </cols>

--- a/interview prep.xlsx
+++ b/interview prep.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1086">
   <si>
     <t xml:space="preserve">This list is prepared by pepcoding for helping students prepare for upcoming interviews.
 Going forward, pepcoding has decided to make all it's current and future content available to students free of cost.
@@ -1270,6 +1270,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.geeksforgeeks.org/painters-partition-problem/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done using dp try using binary search</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.geeksforgeeks.org/check-whether-a-given-string-is-an-interleaving-of-two-other-given-strings-set-2/</t>
@@ -4006,11 +4009,11 @@
   </sheetPr>
   <dimension ref="A1:AB929"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C217" activeCellId="0" sqref="C217"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A433" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C456" activeCellId="0" sqref="C456"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.12"/>
@@ -10183,7 +10186,9 @@
       <c r="C217" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="D217" s="53"/>
+      <c r="D217" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="E217" s="47"/>
       <c r="F217" s="47"/>
     </row>
@@ -10197,7 +10202,9 @@
       <c r="C218" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="D218" s="53"/>
+      <c r="D218" s="53" t="s">
+        <v>414</v>
+      </c>
       <c r="E218" s="47"/>
       <c r="F218" s="47"/>
     </row>
@@ -10209,9 +10216,11 @@
         <v>385</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="D219" s="52"/>
+        <v>415</v>
+      </c>
+      <c r="D219" s="52" t="s">
+        <v>387</v>
+      </c>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
     </row>
@@ -10223,7 +10232,7 @@
         <v>385</v>
       </c>
       <c r="C220" s="46" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D220" s="53"/>
       <c r="E220" s="47"/>
@@ -10237,9 +10246,11 @@
         <v>385</v>
       </c>
       <c r="C221" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="D221" s="53"/>
+        <v>417</v>
+      </c>
+      <c r="D221" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="E221" s="45" t="s">
         <v>134</v>
       </c>
@@ -10253,14 +10264,14 @@
         <v>385</v>
       </c>
       <c r="C222" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D222" s="52"/>
       <c r="E222" s="28" t="s">
         <v>134</v>
       </c>
       <c r="F222" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10271,7 +10282,7 @@
         <v>385</v>
       </c>
       <c r="C223" s="46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D223" s="53"/>
       <c r="E223" s="47"/>
@@ -10299,7 +10310,7 @@
         <v>385</v>
       </c>
       <c r="C225" s="46" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D225" s="53"/>
       <c r="E225" s="47"/>
@@ -10313,7 +10324,7 @@
         <v>385</v>
       </c>
       <c r="C226" s="46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D226" s="52"/>
       <c r="E226" s="47"/>
@@ -10341,7 +10352,7 @@
         <v>385</v>
       </c>
       <c r="C228" s="46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D228" s="53"/>
       <c r="E228" s="47"/>
@@ -10369,7 +10380,7 @@
         <v>385</v>
       </c>
       <c r="C230" s="46" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D230" s="53"/>
       <c r="E230" s="45" t="s">
@@ -10385,7 +10396,7 @@
         <v>385</v>
       </c>
       <c r="C231" s="46" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D231" s="53"/>
       <c r="E231" s="47"/>
@@ -10399,7 +10410,7 @@
         <v>385</v>
       </c>
       <c r="C232" s="46" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D232" s="53"/>
       <c r="E232" s="47"/>
@@ -10413,7 +10424,7 @@
         <v>385</v>
       </c>
       <c r="C233" s="46" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D233" s="53"/>
       <c r="E233" s="47"/>
@@ -10427,7 +10438,7 @@
         <v>385</v>
       </c>
       <c r="C234" s="46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D234" s="52"/>
       <c r="E234" s="47"/>
@@ -10441,7 +10452,7 @@
         <v>385</v>
       </c>
       <c r="C235" s="46" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D235" s="53"/>
       <c r="E235" s="47"/>
@@ -10455,7 +10466,7 @@
         <v>385</v>
       </c>
       <c r="C236" s="30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D236" s="53"/>
       <c r="E236" s="20"/>
@@ -10469,7 +10480,7 @@
         <v>385</v>
       </c>
       <c r="C237" s="30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D237" s="52"/>
       <c r="E237" s="20"/>
@@ -10483,7 +10494,7 @@
         <v>385</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D238" s="52"/>
       <c r="E238" s="20"/>
@@ -10497,7 +10508,7 @@
         <v>385</v>
       </c>
       <c r="C239" s="46" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D239" s="53"/>
       <c r="E239" s="47"/>
@@ -10511,7 +10522,7 @@
         <v>385</v>
       </c>
       <c r="C240" s="46" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D240" s="53"/>
       <c r="E240" s="47"/>
@@ -10539,7 +10550,7 @@
         <v>385</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D242" s="52"/>
       <c r="E242" s="20"/>
@@ -10553,7 +10564,7 @@
         <v>385</v>
       </c>
       <c r="C243" s="46" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D243" s="53"/>
       <c r="E243" s="47"/>
@@ -10567,7 +10578,7 @@
         <v>385</v>
       </c>
       <c r="C244" s="46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D244" s="53"/>
       <c r="E244" s="47"/>
@@ -10581,7 +10592,7 @@
         <v>385</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D245" s="53"/>
       <c r="E245" s="47"/>
@@ -10595,7 +10606,7 @@
         <v>385</v>
       </c>
       <c r="C246" s="46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D246" s="53"/>
       <c r="E246" s="47"/>
@@ -10606,13 +10617,13 @@
         <v>8</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D247" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E247" s="21"/>
       <c r="F247" s="20"/>
@@ -10644,13 +10655,13 @@
         <v>8</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D248" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E248" s="21"/>
       <c r="F248" s="20"/>
@@ -10682,13 +10693,13 @@
         <v>8</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C249" s="54" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E249" s="26" t="s">
         <v>134</v>
@@ -10722,13 +10733,13 @@
         <v>8</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D250" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E250" s="21"/>
       <c r="F250" s="21"/>
@@ -10760,13 +10771,13 @@
         <v>8</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D251" s="18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
@@ -10798,13 +10809,13 @@
         <v>8</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D252" s="44" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
@@ -10836,13 +10847,13 @@
         <v>8</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D253" s="18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E253" s="21"/>
       <c r="F253" s="21"/>
@@ -10874,13 +10885,13 @@
         <v>8</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E254" s="21"/>
       <c r="F254" s="21"/>
@@ -10912,13 +10923,13 @@
         <v>8</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C255" s="54" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="51"/>
@@ -10950,13 +10961,13 @@
         <v>8</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C256" s="24" t="s">
         <v>260</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E256" s="25"/>
       <c r="F256" s="25"/>
@@ -10988,13 +10999,13 @@
         <v>8</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E257" s="25"/>
       <c r="F257" s="25"/>
@@ -11026,13 +11037,13 @@
         <v>8</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E258" s="21"/>
       <c r="F258" s="21"/>
@@ -11064,13 +11075,13 @@
         <v>8</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C259" s="54" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E259" s="26" t="s">
         <v>134</v>
@@ -11104,13 +11115,13 @@
         <v>8</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E260" s="21"/>
       <c r="F260" s="21"/>
@@ -11142,13 +11153,13 @@
         <v>8</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E261" s="21"/>
       <c r="F261" s="21"/>
@@ -11180,13 +11191,13 @@
         <v>8</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E262" s="21"/>
       <c r="F262" s="21"/>
@@ -11218,13 +11229,13 @@
         <v>8</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E263" s="21"/>
       <c r="F263" s="21"/>
@@ -11256,13 +11267,13 @@
         <v>8</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D264" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E264" s="21"/>
       <c r="F264" s="21"/>
@@ -11294,13 +11305,13 @@
         <v>8</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D265" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E265" s="21"/>
       <c r="F265" s="21"/>
@@ -11332,13 +11343,13 @@
         <v>8</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D266" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E266" s="21"/>
       <c r="F266" s="21"/>
@@ -11370,13 +11381,13 @@
         <v>8</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D267" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E267" s="21"/>
       <c r="F267" s="21"/>
@@ -11408,13 +11419,13 @@
         <v>9</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D268" s="18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E268" s="21"/>
       <c r="F268" s="21"/>
@@ -11446,13 +11457,13 @@
         <v>9</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E269" s="21"/>
       <c r="F269" s="21"/>
@@ -11484,13 +11495,13 @@
         <v>9</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E270" s="21"/>
       <c r="F270" s="21"/>
@@ -11522,13 +11533,13 @@
         <v>9</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E271" s="21"/>
       <c r="F271" s="21"/>
@@ -11560,13 +11571,13 @@
         <v>9</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E272" s="21"/>
       <c r="F272" s="21"/>
@@ -11598,13 +11609,13 @@
         <v>9</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E273" s="21"/>
       <c r="F273" s="21"/>
@@ -11636,13 +11647,13 @@
         <v>9</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D274" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E274" s="21"/>
       <c r="F274" s="21"/>
@@ -11674,13 +11685,13 @@
         <v>9</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E275" s="21"/>
       <c r="F275" s="21"/>
@@ -11712,13 +11723,13 @@
         <v>9</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D276" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E276" s="21"/>
       <c r="F276" s="21"/>
@@ -11750,13 +11761,13 @@
         <v>9</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D277" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E277" s="21"/>
       <c r="F277" s="21"/>
@@ -11788,13 +11799,13 @@
         <v>9</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E278" s="21"/>
       <c r="F278" s="21"/>
@@ -11826,13 +11837,13 @@
         <v>9</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E279" s="21"/>
       <c r="F279" s="21"/>
@@ -11864,13 +11875,13 @@
         <v>9</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E280" s="21"/>
       <c r="F280" s="21"/>
@@ -11902,13 +11913,13 @@
         <v>9</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E281" s="21"/>
       <c r="F281" s="21"/>
@@ -11940,10 +11951,10 @@
         <v>9</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D282" s="21"/>
       <c r="E282" s="18" t="s">
@@ -11978,13 +11989,13 @@
         <v>9</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E283" s="21"/>
       <c r="F283" s="21"/>
@@ -12016,13 +12027,13 @@
         <v>9</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D284" s="18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E284" s="21"/>
       <c r="F284" s="21"/>
@@ -12054,13 +12065,13 @@
         <v>9</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D285" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E285" s="21"/>
       <c r="F285" s="21"/>
@@ -12092,10 +12103,10 @@
         <v>9</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D286" s="25"/>
       <c r="E286" s="25"/>
@@ -12128,13 +12139,13 @@
         <v>9</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D287" s="18" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E287" s="21"/>
       <c r="F287" s="21"/>
@@ -12166,13 +12177,13 @@
         <v>9</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D288" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E288" s="21"/>
       <c r="F288" s="21"/>
@@ -12204,13 +12215,13 @@
         <v>9</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D289" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E289" s="21"/>
       <c r="F289" s="21"/>
@@ -12242,13 +12253,13 @@
         <v>9</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D290" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E290" s="21"/>
       <c r="F290" s="21"/>
@@ -12280,13 +12291,13 @@
         <v>9</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E291" s="21"/>
       <c r="F291" s="21"/>
@@ -12318,13 +12329,13 @@
         <v>9</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D292" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E292" s="21"/>
       <c r="F292" s="21"/>
@@ -12356,13 +12367,13 @@
         <v>9</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D293" s="18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E293" s="21"/>
       <c r="F293" s="21"/>
@@ -12394,10 +12405,10 @@
         <v>9</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C294" s="54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D294" s="26"/>
       <c r="E294" s="51"/>
@@ -12430,10 +12441,10 @@
         <v>9</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C295" s="54" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="51"/>
@@ -12466,13 +12477,13 @@
         <v>9</v>
       </c>
       <c r="B296" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E296" s="21"/>
       <c r="F296" s="21"/>
@@ -12504,13 +12515,13 @@
         <v>9</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E297" s="21"/>
       <c r="F297" s="21"/>
@@ -12542,13 +12553,13 @@
         <v>9</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D298" s="18" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E298" s="21"/>
       <c r="F298" s="21"/>
@@ -12580,10 +12591,10 @@
         <v>9</v>
       </c>
       <c r="B299" s="41" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C299" s="42" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D299" s="43"/>
       <c r="E299" s="43"/>
@@ -12594,10 +12605,10 @@
         <v>10</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C300" s="33" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D300" s="25"/>
       <c r="E300" s="25"/>
@@ -12608,13 +12619,13 @@
         <v>10</v>
       </c>
       <c r="B301" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C301" s="46" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D301" s="45" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E301" s="47"/>
       <c r="F301" s="47"/>
@@ -12624,10 +12635,10 @@
         <v>10</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C302" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
@@ -12638,10 +12649,10 @@
         <v>10</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C303" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D303" s="23"/>
       <c r="E303" s="23"/>
@@ -12652,10 +12663,10 @@
         <v>10</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C304" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
@@ -12666,10 +12677,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C305" s="46" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D305" s="45"/>
       <c r="E305" s="45"/>
@@ -12680,10 +12691,10 @@
         <v>10</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C306" s="46" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D306" s="45"/>
       <c r="E306" s="45"/>
@@ -12694,10 +12705,10 @@
         <v>10</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C307" s="46" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D307" s="45"/>
       <c r="E307" s="45"/>
@@ -12708,10 +12719,10 @@
         <v>10</v>
       </c>
       <c r="B308" s="56" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C308" s="57" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D308" s="56"/>
       <c r="E308" s="56"/>
@@ -12722,10 +12733,10 @@
         <v>10</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C309" s="46" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D309" s="45"/>
       <c r="E309" s="45" t="s">
@@ -12738,10 +12749,10 @@
         <v>10</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C310" s="46" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D310" s="45"/>
       <c r="E310" s="45"/>
@@ -12752,10 +12763,10 @@
         <v>10</v>
       </c>
       <c r="B311" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C311" s="58" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D311" s="45"/>
       <c r="E311" s="45"/>
@@ -12766,10 +12777,10 @@
         <v>10</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C312" s="38" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
@@ -12780,13 +12791,13 @@
         <v>10</v>
       </c>
       <c r="B313" s="45" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C313" s="46" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D313" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E313" s="45"/>
       <c r="F313" s="47"/>
@@ -12796,13 +12807,13 @@
         <v>10</v>
       </c>
       <c r="B314" s="59" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C314" s="58" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D314" s="59" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E314" s="59" t="s">
         <v>134</v>
@@ -12814,10 +12825,10 @@
         <v>10</v>
       </c>
       <c r="B315" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C315" s="46" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D315" s="47"/>
       <c r="E315" s="47"/>
@@ -12828,10 +12839,10 @@
         <v>10</v>
       </c>
       <c r="B316" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C316" s="58" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D316" s="47"/>
       <c r="E316" s="47"/>
@@ -12842,13 +12853,13 @@
         <v>10</v>
       </c>
       <c r="B317" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C317" s="58" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D317" s="45" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E317" s="45" t="s">
         <v>134</v>
@@ -12860,17 +12871,17 @@
         <v>10</v>
       </c>
       <c r="B318" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C318" s="58" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D318" s="47"/>
       <c r="E318" s="45" t="s">
         <v>134</v>
       </c>
       <c r="F318" s="46" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12878,10 +12889,10 @@
         <v>10</v>
       </c>
       <c r="B319" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C319" s="46" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D319" s="47"/>
       <c r="E319" s="47"/>
@@ -12892,10 +12903,10 @@
         <v>10</v>
       </c>
       <c r="B320" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C320" s="46" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D320" s="47"/>
       <c r="E320" s="47"/>
@@ -12906,10 +12917,10 @@
         <v>10</v>
       </c>
       <c r="B321" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C321" s="46" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D321" s="47"/>
       <c r="E321" s="47"/>
@@ -12920,10 +12931,10 @@
         <v>10</v>
       </c>
       <c r="B322" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C322" s="46" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D322" s="47"/>
       <c r="E322" s="47"/>
@@ -12934,10 +12945,10 @@
         <v>10</v>
       </c>
       <c r="B323" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C323" s="46" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D323" s="47"/>
       <c r="E323" s="47"/>
@@ -12948,10 +12959,10 @@
         <v>10</v>
       </c>
       <c r="B324" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C324" s="46" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D324" s="47"/>
       <c r="E324" s="47"/>
@@ -12962,10 +12973,10 @@
         <v>10</v>
       </c>
       <c r="B325" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C325" s="46" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D325" s="47"/>
       <c r="E325" s="47"/>
@@ -12976,10 +12987,10 @@
         <v>10</v>
       </c>
       <c r="B326" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C326" s="46" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D326" s="47"/>
       <c r="E326" s="47"/>
@@ -12990,13 +13001,13 @@
         <v>10</v>
       </c>
       <c r="B327" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C327" s="46" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D327" s="45" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E327" s="47"/>
       <c r="F327" s="47"/>
@@ -13006,10 +13017,10 @@
         <v>10</v>
       </c>
       <c r="B328" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C328" s="46" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D328" s="47"/>
       <c r="E328" s="47"/>
@@ -13020,10 +13031,10 @@
         <v>10</v>
       </c>
       <c r="B329" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C329" s="46" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D329" s="47"/>
       <c r="E329" s="47"/>
@@ -13034,10 +13045,10 @@
         <v>10</v>
       </c>
       <c r="B330" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C330" s="46" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D330" s="47"/>
       <c r="E330" s="47"/>
@@ -13048,10 +13059,10 @@
         <v>10</v>
       </c>
       <c r="B331" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C331" s="46" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D331" s="47"/>
       <c r="E331" s="47"/>
@@ -13062,10 +13073,10 @@
         <v>10</v>
       </c>
       <c r="B332" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C332" s="46" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D332" s="47"/>
       <c r="E332" s="47"/>
@@ -13076,10 +13087,10 @@
         <v>10</v>
       </c>
       <c r="B333" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C333" s="46" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D333" s="47"/>
       <c r="E333" s="47"/>
@@ -13090,13 +13101,13 @@
         <v>10</v>
       </c>
       <c r="B334" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C334" s="46" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D334" s="45" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E334" s="47"/>
       <c r="F334" s="47"/>
@@ -13106,10 +13117,10 @@
         <v>10</v>
       </c>
       <c r="B335" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C335" s="46" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D335" s="47"/>
       <c r="E335" s="47"/>
@@ -13120,10 +13131,10 @@
         <v>10</v>
       </c>
       <c r="B336" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C336" s="46" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D336" s="47"/>
       <c r="E336" s="47"/>
@@ -13134,10 +13145,10 @@
         <v>10</v>
       </c>
       <c r="B337" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C337" s="46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D337" s="47"/>
       <c r="E337" s="47"/>
@@ -13148,10 +13159,10 @@
         <v>10</v>
       </c>
       <c r="B338" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C338" s="46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D338" s="47"/>
       <c r="E338" s="47"/>
@@ -13162,10 +13173,10 @@
         <v>10</v>
       </c>
       <c r="B339" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C339" s="46" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D339" s="47"/>
       <c r="E339" s="47"/>
@@ -13176,13 +13187,13 @@
         <v>10</v>
       </c>
       <c r="B340" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C340" s="46" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E340" s="47"/>
       <c r="F340" s="47"/>
@@ -13192,10 +13203,10 @@
         <v>10</v>
       </c>
       <c r="B341" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C341" s="46" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D341" s="47"/>
       <c r="E341" s="47"/>
@@ -13206,10 +13217,10 @@
         <v>10</v>
       </c>
       <c r="B342" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C342" s="46" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D342" s="47"/>
       <c r="E342" s="47"/>
@@ -13220,10 +13231,10 @@
         <v>10</v>
       </c>
       <c r="B343" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C343" s="46" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D343" s="47"/>
       <c r="E343" s="47"/>
@@ -13234,10 +13245,10 @@
         <v>10</v>
       </c>
       <c r="B344" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C344" s="46" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D344" s="47"/>
       <c r="E344" s="47"/>
@@ -13248,10 +13259,10 @@
         <v>10</v>
       </c>
       <c r="B345" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C345" s="46" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D345" s="47"/>
       <c r="E345" s="47"/>
@@ -13262,10 +13273,10 @@
         <v>10</v>
       </c>
       <c r="B346" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C346" s="46" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D346" s="47"/>
       <c r="E346" s="47"/>
@@ -13276,10 +13287,10 @@
         <v>10</v>
       </c>
       <c r="B347" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C347" s="46" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D347" s="47"/>
       <c r="E347" s="47"/>
@@ -13290,10 +13301,10 @@
         <v>10</v>
       </c>
       <c r="B348" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C348" s="46" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D348" s="47"/>
       <c r="E348" s="47"/>
@@ -13304,13 +13315,13 @@
         <v>10</v>
       </c>
       <c r="B349" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C349" s="46" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D349" s="45" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E349" s="47"/>
       <c r="F349" s="47"/>
@@ -13320,10 +13331,10 @@
         <v>10</v>
       </c>
       <c r="B350" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C350" s="46" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D350" s="47"/>
       <c r="E350" s="47"/>
@@ -13334,10 +13345,10 @@
         <v>10</v>
       </c>
       <c r="B351" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C351" s="46" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D351" s="47"/>
       <c r="E351" s="47"/>
@@ -13348,10 +13359,10 @@
         <v>10</v>
       </c>
       <c r="B352" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C352" s="46" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D352" s="47"/>
       <c r="E352" s="47"/>
@@ -13362,10 +13373,10 @@
         <v>10</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C353" s="24" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D353" s="25"/>
       <c r="E353" s="25"/>
@@ -13376,10 +13387,10 @@
         <v>10</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C354" s="24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D354" s="25"/>
       <c r="E354" s="25"/>
@@ -13390,10 +13401,10 @@
         <v>10</v>
       </c>
       <c r="B355" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C355" s="61" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D355" s="45"/>
       <c r="E355" s="47"/>
@@ -13404,10 +13415,10 @@
         <v>10</v>
       </c>
       <c r="B356" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C356" s="46" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D356" s="47"/>
       <c r="E356" s="47"/>
@@ -13418,10 +13429,10 @@
         <v>10</v>
       </c>
       <c r="B357" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C357" s="46" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D357" s="47"/>
       <c r="E357" s="47"/>
@@ -13432,10 +13443,10 @@
         <v>10</v>
       </c>
       <c r="B358" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C358" s="46" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D358" s="47"/>
       <c r="E358" s="47"/>
@@ -13446,10 +13457,10 @@
         <v>10</v>
       </c>
       <c r="B359" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D359" s="47"/>
       <c r="E359" s="47"/>
@@ -13460,10 +13471,10 @@
         <v>10</v>
       </c>
       <c r="B360" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C360" s="46" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D360" s="47"/>
       <c r="E360" s="47"/>
@@ -13474,10 +13485,10 @@
         <v>10</v>
       </c>
       <c r="B361" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C361" s="46" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D361" s="50"/>
       <c r="E361" s="47"/>
@@ -13488,10 +13499,10 @@
         <v>10</v>
       </c>
       <c r="B362" s="41" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C362" s="42" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D362" s="43"/>
       <c r="E362" s="43"/>
@@ -13502,13 +13513,13 @@
         <v>10</v>
       </c>
       <c r="B363" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C363" s="46" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D363" s="45" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E363" s="47"/>
       <c r="F363" s="47"/>
@@ -13518,10 +13529,10 @@
         <v>10</v>
       </c>
       <c r="B364" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C364" s="46" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D364" s="47"/>
       <c r="E364" s="47"/>
@@ -13532,13 +13543,13 @@
         <v>10</v>
       </c>
       <c r="B365" s="45" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C365" s="46" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D365" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E365" s="47"/>
       <c r="F365" s="47"/>
@@ -13548,10 +13559,10 @@
         <v>11</v>
       </c>
       <c r="B366" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C366" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D366" s="47"/>
       <c r="E366" s="47"/>
@@ -13562,10 +13573,10 @@
         <v>11</v>
       </c>
       <c r="B367" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C367" s="46" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D367" s="47"/>
       <c r="E367" s="47"/>
@@ -13576,10 +13587,10 @@
         <v>11</v>
       </c>
       <c r="B368" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C368" s="46" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D368" s="47"/>
       <c r="E368" s="47"/>
@@ -13590,10 +13601,10 @@
         <v>11</v>
       </c>
       <c r="B369" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C369" s="46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D369" s="47"/>
       <c r="E369" s="45" t="s">
@@ -13606,10 +13617,10 @@
         <v>11</v>
       </c>
       <c r="B370" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C370" s="46" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D370" s="47"/>
       <c r="E370" s="47"/>
@@ -13620,10 +13631,10 @@
         <v>11</v>
       </c>
       <c r="B371" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C371" s="46" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D371" s="47"/>
       <c r="E371" s="47"/>
@@ -13634,10 +13645,10 @@
         <v>11</v>
       </c>
       <c r="B372" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C372" s="46" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D372" s="47"/>
       <c r="E372" s="47"/>
@@ -13648,10 +13659,10 @@
         <v>11</v>
       </c>
       <c r="B373" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C373" s="46" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D373" s="47"/>
       <c r="E373" s="47"/>
@@ -13662,15 +13673,15 @@
         <v>11</v>
       </c>
       <c r="B374" s="62" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C374" s="63" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D374" s="64"/>
       <c r="E374" s="64"/>
       <c r="F374" s="63" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13678,10 +13689,10 @@
         <v>11</v>
       </c>
       <c r="B375" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C375" s="46" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D375" s="47"/>
       <c r="E375" s="47"/>
@@ -13692,10 +13703,10 @@
         <v>11</v>
       </c>
       <c r="B376" s="62" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C376" s="63" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D376" s="64"/>
       <c r="E376" s="64"/>
@@ -13706,10 +13717,10 @@
         <v>11</v>
       </c>
       <c r="B377" s="62" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C377" s="63" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D377" s="64"/>
       <c r="E377" s="64"/>
@@ -13720,10 +13731,10 @@
         <v>11</v>
       </c>
       <c r="B378" s="62" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C378" s="63" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D378" s="64"/>
       <c r="E378" s="64"/>
@@ -13734,10 +13745,10 @@
         <v>11</v>
       </c>
       <c r="B379" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C379" s="46" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D379" s="47"/>
       <c r="E379" s="47"/>
@@ -13748,10 +13759,10 @@
         <v>11</v>
       </c>
       <c r="B380" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C380" s="46" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D380" s="47"/>
       <c r="E380" s="47"/>
@@ -13762,10 +13773,10 @@
         <v>11</v>
       </c>
       <c r="B381" s="62" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C381" s="63" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D381" s="64"/>
       <c r="E381" s="64"/>
@@ -13776,10 +13787,10 @@
         <v>11</v>
       </c>
       <c r="B382" s="62" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C382" s="63" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D382" s="64"/>
       <c r="E382" s="64"/>
@@ -13790,10 +13801,10 @@
         <v>11</v>
       </c>
       <c r="B383" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C383" s="46" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D383" s="47"/>
       <c r="E383" s="47"/>
@@ -13804,10 +13815,10 @@
         <v>11</v>
       </c>
       <c r="B384" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C384" s="46" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D384" s="47"/>
       <c r="E384" s="47"/>
@@ -13818,10 +13829,10 @@
         <v>11</v>
       </c>
       <c r="B385" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C385" s="46" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D385" s="47"/>
       <c r="E385" s="47"/>
@@ -13832,10 +13843,10 @@
         <v>11</v>
       </c>
       <c r="B386" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C386" s="46" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D386" s="47"/>
       <c r="E386" s="47"/>
@@ -13846,10 +13857,10 @@
         <v>11</v>
       </c>
       <c r="B387" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C387" s="46" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D387" s="47"/>
       <c r="E387" s="47"/>
@@ -13860,10 +13871,10 @@
         <v>11</v>
       </c>
       <c r="B388" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C388" s="46" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D388" s="47"/>
       <c r="E388" s="47"/>
@@ -13874,17 +13885,17 @@
         <v>11</v>
       </c>
       <c r="B389" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C389" s="46" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D389" s="45" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E389" s="47"/>
       <c r="F389" s="46" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13892,10 +13903,10 @@
         <v>11</v>
       </c>
       <c r="B390" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C390" s="46" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D390" s="47"/>
       <c r="E390" s="47"/>
@@ -13906,13 +13917,13 @@
         <v>11</v>
       </c>
       <c r="B391" s="45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C391" s="46" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D391" s="45" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E391" s="47"/>
       <c r="F391" s="47"/>
@@ -13922,10 +13933,10 @@
         <v>11</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C392" s="24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D392" s="25"/>
       <c r="E392" s="25"/>
@@ -13936,10 +13947,10 @@
         <v>11</v>
       </c>
       <c r="B393" s="23" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C393" s="24" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D393" s="25"/>
       <c r="E393" s="25"/>
@@ -13950,13 +13961,13 @@
         <v>12</v>
       </c>
       <c r="B394" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D394" s="18" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E394" s="21"/>
       <c r="F394" s="21"/>
@@ -13988,13 +13999,13 @@
         <v>12</v>
       </c>
       <c r="B395" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D395" s="18" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E395" s="21"/>
       <c r="F395" s="21"/>
@@ -14026,13 +14037,13 @@
         <v>12</v>
       </c>
       <c r="B396" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D396" s="18" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E396" s="21"/>
       <c r="F396" s="21"/>
@@ -14064,13 +14075,13 @@
         <v>12</v>
       </c>
       <c r="B397" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D397" s="18" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E397" s="21"/>
       <c r="F397" s="21"/>
@@ -14102,13 +14113,13 @@
         <v>12</v>
       </c>
       <c r="B398" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C398" s="19" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D398" s="18" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E398" s="21"/>
       <c r="F398" s="21"/>
@@ -14140,13 +14151,13 @@
         <v>12</v>
       </c>
       <c r="B399" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D399" s="18" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E399" s="21"/>
       <c r="F399" s="21"/>
@@ -14178,13 +14189,13 @@
         <v>12</v>
       </c>
       <c r="B400" s="28" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C400" s="30" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D400" s="28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E400" s="20"/>
       <c r="F400" s="20"/>
@@ -14216,13 +14227,13 @@
         <v>12</v>
       </c>
       <c r="B401" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D401" s="18" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E401" s="21"/>
       <c r="F401" s="21"/>
@@ -14254,13 +14265,13 @@
         <v>12</v>
       </c>
       <c r="B402" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D402" s="18" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E402" s="21"/>
       <c r="F402" s="21"/>
@@ -14292,13 +14303,13 @@
         <v>12</v>
       </c>
       <c r="B403" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D403" s="18" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E403" s="21"/>
       <c r="F403" s="21"/>
@@ -14330,13 +14341,13 @@
         <v>12</v>
       </c>
       <c r="B404" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D404" s="18" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E404" s="21"/>
       <c r="F404" s="21"/>
@@ -14368,13 +14379,13 @@
         <v>12</v>
       </c>
       <c r="B405" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D405" s="18" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E405" s="21"/>
       <c r="F405" s="21"/>
@@ -14406,13 +14417,13 @@
         <v>12</v>
       </c>
       <c r="B406" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E406" s="21"/>
       <c r="F406" s="21"/>
@@ -14444,13 +14455,13 @@
         <v>12</v>
       </c>
       <c r="B407" s="28" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C407" s="30" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D407" s="28" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E407" s="28" t="s">
         <v>134</v>
@@ -14484,13 +14495,13 @@
         <v>12</v>
       </c>
       <c r="B408" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D408" s="18" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E408" s="21"/>
       <c r="F408" s="21"/>
@@ -14522,13 +14533,13 @@
         <v>12</v>
       </c>
       <c r="B409" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C409" s="24" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E409" s="23" t="s">
         <v>134</v>
@@ -14562,10 +14573,10 @@
         <v>12</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C410" s="24" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D410" s="25"/>
       <c r="E410" s="23" t="s">
@@ -14600,13 +14611,13 @@
         <v>12</v>
       </c>
       <c r="B411" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D411" s="18" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E411" s="21"/>
       <c r="F411" s="21"/>
@@ -14638,13 +14649,13 @@
         <v>12</v>
       </c>
       <c r="B412" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D412" s="18" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E412" s="21"/>
       <c r="F412" s="21"/>
@@ -14676,13 +14687,13 @@
         <v>12</v>
       </c>
       <c r="B413" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C413" s="19" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D413" s="18" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E413" s="21"/>
       <c r="F413" s="21"/>
@@ -14714,13 +14725,13 @@
         <v>12</v>
       </c>
       <c r="B414" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C414" s="19" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D414" s="18" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E414" s="21"/>
       <c r="F414" s="21"/>
@@ -14752,13 +14763,13 @@
         <v>12</v>
       </c>
       <c r="B415" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C415" s="19" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D415" s="18" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E415" s="21"/>
       <c r="F415" s="21"/>
@@ -14790,13 +14801,13 @@
         <v>12</v>
       </c>
       <c r="B416" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C416" s="19" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D416" s="18" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E416" s="21"/>
       <c r="F416" s="21"/>
@@ -14828,13 +14839,13 @@
         <v>12</v>
       </c>
       <c r="B417" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C417" s="19" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D417" s="18" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E417" s="21"/>
       <c r="F417" s="21"/>
@@ -14866,13 +14877,13 @@
         <v>12</v>
       </c>
       <c r="B418" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C418" s="19" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D418" s="18" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E418" s="21"/>
       <c r="F418" s="21"/>
@@ -14904,13 +14915,13 @@
         <v>12</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C419" s="24" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D419" s="23" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E419" s="23" t="s">
         <v>134</v>
@@ -14944,13 +14955,13 @@
         <v>12</v>
       </c>
       <c r="B420" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C420" s="19" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D420" s="18" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E420" s="21"/>
       <c r="F420" s="21"/>
@@ -14982,13 +14993,13 @@
         <v>12</v>
       </c>
       <c r="B421" s="18" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D421" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E421" s="21"/>
       <c r="F421" s="21"/>
@@ -15020,13 +15031,13 @@
         <v>12</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C422" s="24" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D422" s="23" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E422" s="25"/>
       <c r="F422" s="51"/>
@@ -15058,10 +15069,10 @@
         <v>12</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C423" s="24" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="23" t="s">
@@ -15093,13 +15104,13 @@
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B424" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C424" s="46" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D424" s="45" t="s">
         <v>387</v>
@@ -15111,48 +15122,48 @@
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B425" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C425" s="46" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D425" s="45" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E425" s="47"/>
       <c r="F425" s="47"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B426" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C426" s="30" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D426" s="28" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B427" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C427" s="46" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D427" s="45" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E427" s="47" t="s">
         <v>387</v>
@@ -15161,16 +15172,16 @@
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B428" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C428" s="30" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D428" s="28" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E428" s="20" t="s">
         <v>387</v>
@@ -15179,16 +15190,16 @@
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B429" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C429" s="46" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D429" s="45" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E429" s="47" t="s">
         <v>387</v>
@@ -15197,16 +15208,16 @@
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B430" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C430" s="30" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D430" s="28" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E430" s="20" t="s">
         <v>387</v>
@@ -15215,16 +15226,16 @@
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B431" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C431" s="46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D431" s="45" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E431" s="47" t="s">
         <v>387</v>
@@ -15233,32 +15244,32 @@
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B432" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C432" s="30" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D432" s="45" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E432" s="28"/>
       <c r="F432" s="20"/>
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B433" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C433" s="30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D433" s="28" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E433" s="20" t="s">
         <v>387</v>
@@ -15267,16 +15278,16 @@
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B434" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C434" s="30" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D434" s="28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E434" s="20" t="s">
         <v>387</v>
@@ -15285,50 +15296,50 @@
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B435" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C435" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D435" s="28" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E435" s="20" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F435" s="20"/>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B436" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C436" s="46" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D436" s="45" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E436" s="45"/>
       <c r="F436" s="47"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B437" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C437" s="46" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D437" s="45" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E437" s="47" t="s">
         <v>387</v>
@@ -15337,77 +15348,79 @@
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B438" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C438" s="46" t="s">
+        <v>738</v>
+      </c>
+      <c r="D438" s="45" t="s">
         <v>737</v>
       </c>
-      <c r="D438" s="45" t="s">
-        <v>736</v>
-      </c>
-      <c r="E438" s="47"/>
+      <c r="E438" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="F438" s="47"/>
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B439" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C439" s="30" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D439" s="45" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E439" s="28"/>
       <c r="F439" s="20"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="62" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B440" s="62" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C440" s="63" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D440" s="62" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E440" s="64"/>
       <c r="F440" s="64"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B441" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C441" s="30" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D441" s="28" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E441" s="20"/>
       <c r="F441" s="20"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B442" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C442" s="30" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D442" s="28"/>
       <c r="E442" s="20"/>
@@ -15415,13 +15428,13 @@
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B443" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C443" s="46" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D443" s="47"/>
       <c r="E443" s="47"/>
@@ -15429,29 +15442,29 @@
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B444" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C444" s="30" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D444" s="28" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E444" s="20"/>
       <c r="F444" s="20"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B445" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C445" s="30" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D445" s="20"/>
       <c r="E445" s="20"/>
@@ -15459,13 +15472,13 @@
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B446" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C446" s="30" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D446" s="20"/>
       <c r="E446" s="20"/>
@@ -15473,45 +15486,45 @@
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B447" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C447" s="30" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D447" s="28" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E447" s="20"/>
       <c r="F447" s="20"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B448" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C448" s="46" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D448" s="45" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E448" s="47"/>
       <c r="F448" s="47"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B449" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C449" s="46" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D449" s="47"/>
       <c r="E449" s="47"/>
@@ -15519,26 +15532,26 @@
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B450" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C450" s="46" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D450" s="45" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E450" s="47"/>
       <c r="F450" s="47"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B451" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C451" s="46" t="s">
         <v>251</v>
@@ -15549,13 +15562,13 @@
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B452" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C452" s="46" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D452" s="47"/>
       <c r="E452" s="45" t="s">
@@ -15565,61 +15578,61 @@
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B453" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C453" s="46" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D453" s="45" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E453" s="47"/>
       <c r="F453" s="47"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B454" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C454" s="46" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D454" s="45" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E454" s="47"/>
       <c r="F454" s="47"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B455" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C455" s="46" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D455" s="45" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E455" s="47"/>
       <c r="F455" s="47"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="45" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B456" s="45" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C456" s="46" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D456" s="47"/>
       <c r="E456" s="47"/>
@@ -15630,7 +15643,7 @@
         <v>14</v>
       </c>
       <c r="B457" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C457" s="55"/>
       <c r="D457" s="55"/>
@@ -15642,7 +15655,7 @@
         <v>14</v>
       </c>
       <c r="B458" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C458" s="55"/>
       <c r="D458" s="55"/>
@@ -15654,7 +15667,7 @@
         <v>14</v>
       </c>
       <c r="B459" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C459" s="55"/>
       <c r="D459" s="55"/>
@@ -15666,7 +15679,7 @@
         <v>14</v>
       </c>
       <c r="B460" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C460" s="55"/>
       <c r="D460" s="55"/>
@@ -15678,7 +15691,7 @@
         <v>14</v>
       </c>
       <c r="B461" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C461" s="55"/>
       <c r="D461" s="55"/>
@@ -15690,7 +15703,7 @@
         <v>14</v>
       </c>
       <c r="B462" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C462" s="55"/>
       <c r="D462" s="55"/>
@@ -15702,7 +15715,7 @@
         <v>14</v>
       </c>
       <c r="B463" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C463" s="55"/>
       <c r="D463" s="55"/>
@@ -15714,7 +15727,7 @@
         <v>14</v>
       </c>
       <c r="B464" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C464" s="55"/>
       <c r="D464" s="55"/>
@@ -15726,7 +15739,7 @@
         <v>14</v>
       </c>
       <c r="B465" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C465" s="55"/>
       <c r="D465" s="55"/>
@@ -15738,7 +15751,7 @@
         <v>14</v>
       </c>
       <c r="B466" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C466" s="55"/>
       <c r="D466" s="55"/>
@@ -15750,7 +15763,7 @@
         <v>14</v>
       </c>
       <c r="B467" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C467" s="55"/>
       <c r="D467" s="55"/>
@@ -15762,7 +15775,7 @@
         <v>14</v>
       </c>
       <c r="B468" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C468" s="55"/>
       <c r="D468" s="55"/>
@@ -15774,7 +15787,7 @@
         <v>14</v>
       </c>
       <c r="B469" s="56" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C469" s="55"/>
       <c r="D469" s="55"/>
@@ -15786,13 +15799,13 @@
         <v>15</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C470" s="19" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E470" s="21"/>
       <c r="F470" s="21"/>
@@ -15824,13 +15837,13 @@
         <v>15</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C471" s="19" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D471" s="18" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E471" s="21"/>
       <c r="F471" s="21"/>
@@ -15862,13 +15875,13 @@
         <v>15</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C472" s="19" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D472" s="18" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E472" s="21"/>
       <c r="F472" s="21"/>
@@ -15900,13 +15913,13 @@
         <v>15</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C473" s="19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D473" s="18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E473" s="21"/>
       <c r="F473" s="21"/>
@@ -15938,13 +15951,13 @@
         <v>15</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C474" s="19" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D474" s="18" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E474" s="21"/>
       <c r="F474" s="21"/>
@@ -15976,13 +15989,13 @@
         <v>15</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C475" s="19" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D475" s="18" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E475" s="21"/>
       <c r="F475" s="21"/>
@@ -16014,13 +16027,13 @@
         <v>15</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C476" s="19" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D476" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E476" s="21"/>
       <c r="F476" s="21"/>
@@ -16052,13 +16065,13 @@
         <v>15</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C477" s="19" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D477" s="18" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E477" s="21"/>
       <c r="F477" s="21"/>
@@ -16090,13 +16103,13 @@
         <v>15</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C478" s="19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D478" s="18" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E478" s="21"/>
       <c r="F478" s="21"/>
@@ -16128,13 +16141,13 @@
         <v>15</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C479" s="19" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D479" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E479" s="21"/>
       <c r="F479" s="21"/>
@@ -16166,13 +16179,13 @@
         <v>15</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C480" s="19" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D480" s="18" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E480" s="21"/>
       <c r="F480" s="21"/>
@@ -16204,13 +16217,13 @@
         <v>15</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D481" s="18" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E481" s="21"/>
       <c r="F481" s="21"/>
@@ -16242,13 +16255,13 @@
         <v>15</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C482" s="19" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D482" s="18" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E482" s="21"/>
       <c r="F482" s="21"/>
@@ -16280,13 +16293,13 @@
         <v>15</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C483" s="19" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D483" s="18" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E483" s="21"/>
       <c r="F483" s="21"/>
@@ -16318,13 +16331,13 @@
         <v>15</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C484" s="19" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D484" s="18" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E484" s="21"/>
       <c r="F484" s="21"/>
@@ -16356,13 +16369,13 @@
         <v>15</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C485" s="19" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D485" s="18" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E485" s="21"/>
       <c r="F485" s="21"/>
@@ -16394,13 +16407,13 @@
         <v>15</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C486" s="19" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D486" s="18" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E486" s="21"/>
       <c r="F486" s="21"/>
@@ -16432,13 +16445,13 @@
         <v>15</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C487" s="19" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D487" s="18" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E487" s="21"/>
       <c r="F487" s="21"/>
@@ -16470,13 +16483,13 @@
         <v>15</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C488" s="19" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D488" s="18" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E488" s="21"/>
       <c r="F488" s="21"/>
@@ -16508,13 +16521,13 @@
         <v>15</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C489" s="19" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D489" s="18" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E489" s="21"/>
       <c r="F489" s="21"/>
@@ -16549,10 +16562,10 @@
         <v>45</v>
       </c>
       <c r="C490" s="65" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D490" s="56" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E490" s="55"/>
       <c r="F490" s="55"/>
@@ -16565,10 +16578,10 @@
         <v>45</v>
       </c>
       <c r="C491" s="65" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D491" s="56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E491" s="55"/>
       <c r="F491" s="55"/>
@@ -16581,10 +16594,10 @@
         <v>45</v>
       </c>
       <c r="C492" s="65" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D492" s="56" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E492" s="55"/>
       <c r="F492" s="55"/>
@@ -16597,10 +16610,10 @@
         <v>45</v>
       </c>
       <c r="C493" s="65" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D493" s="56" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E493" s="55"/>
       <c r="F493" s="55"/>
@@ -16613,10 +16626,10 @@
         <v>45</v>
       </c>
       <c r="C494" s="65" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D494" s="66" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E494" s="55"/>
       <c r="F494" s="55"/>
@@ -16629,7 +16642,7 @@
         <v>45</v>
       </c>
       <c r="C495" s="65" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D495" s="55"/>
       <c r="E495" s="55"/>
@@ -16643,10 +16656,10 @@
         <v>45</v>
       </c>
       <c r="C496" s="67" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D496" s="28" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E496" s="55"/>
       <c r="F496" s="55"/>
@@ -16659,7 +16672,7 @@
         <v>45</v>
       </c>
       <c r="C497" s="65" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D497" s="56"/>
       <c r="E497" s="55"/>
@@ -16673,7 +16686,7 @@
         <v>45</v>
       </c>
       <c r="C498" s="65" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D498" s="56"/>
       <c r="E498" s="55"/>
@@ -16687,7 +16700,7 @@
         <v>45</v>
       </c>
       <c r="C499" s="65" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D499" s="55"/>
       <c r="E499" s="55"/>
@@ -16698,10 +16711,10 @@
         <v>16</v>
       </c>
       <c r="B500" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C500" s="68" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D500" s="69"/>
       <c r="E500" s="64"/>
@@ -16712,10 +16725,10 @@
         <v>16</v>
       </c>
       <c r="B501" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C501" s="68" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D501" s="69"/>
       <c r="E501" s="64"/>
@@ -16726,10 +16739,10 @@
         <v>16</v>
       </c>
       <c r="B502" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C502" s="70" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D502" s="70"/>
       <c r="E502" s="64"/>
@@ -16740,10 +16753,10 @@
         <v>16</v>
       </c>
       <c r="B503" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C503" s="68" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D503" s="69"/>
       <c r="E503" s="64"/>
@@ -16754,10 +16767,10 @@
         <v>16</v>
       </c>
       <c r="B504" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C504" s="68" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D504" s="70"/>
       <c r="E504" s="64"/>
@@ -16768,10 +16781,10 @@
         <v>16</v>
       </c>
       <c r="B505" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C505" s="68" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D505" s="69"/>
       <c r="E505" s="69"/>
@@ -16782,13 +16795,13 @@
         <v>16</v>
       </c>
       <c r="B506" s="56" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C506" s="71" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D506" s="71" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16796,10 +16809,10 @@
         <v>16</v>
       </c>
       <c r="B507" s="56" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C507" s="71" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16807,10 +16820,10 @@
         <v>16</v>
       </c>
       <c r="B508" s="56" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C508" s="71" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16818,10 +16831,10 @@
         <v>16</v>
       </c>
       <c r="B509" s="56" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C509" s="71" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16829,10 +16842,10 @@
         <v>16</v>
       </c>
       <c r="B510" s="56" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C510" s="71" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16840,10 +16853,10 @@
         <v>16</v>
       </c>
       <c r="B511" s="56" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C511" s="71" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16851,10 +16864,10 @@
         <v>17</v>
       </c>
       <c r="B512" s="56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C512" s="65" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D512" s="55"/>
       <c r="E512" s="55"/>
@@ -16865,13 +16878,13 @@
         <v>17</v>
       </c>
       <c r="B513" s="56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C513" s="65" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D513" s="56" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E513" s="55"/>
       <c r="F513" s="55"/>
@@ -16881,13 +16894,13 @@
         <v>17</v>
       </c>
       <c r="B514" s="56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C514" s="65" t="s">
+        <v>842</v>
+      </c>
+      <c r="D514" s="56" t="s">
         <v>841</v>
-      </c>
-      <c r="D514" s="56" t="s">
-        <v>840</v>
       </c>
       <c r="E514" s="55"/>
       <c r="F514" s="55"/>
@@ -16897,10 +16910,10 @@
         <v>17</v>
       </c>
       <c r="B515" s="56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C515" s="65" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D515" s="55"/>
       <c r="E515" s="55"/>
@@ -16911,10 +16924,10 @@
         <v>17</v>
       </c>
       <c r="B516" s="56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C516" s="65" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D516" s="55"/>
       <c r="E516" s="55"/>
@@ -16925,10 +16938,10 @@
         <v>17</v>
       </c>
       <c r="B517" s="56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C517" s="65" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D517" s="55"/>
       <c r="E517" s="55"/>
@@ -16939,10 +16952,10 @@
         <v>17</v>
       </c>
       <c r="B518" s="56" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C518" s="65" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D518" s="55"/>
       <c r="E518" s="55"/>
@@ -16953,10 +16966,10 @@
         <v>17</v>
       </c>
       <c r="B519" s="66" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C519" s="71" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16964,10 +16977,10 @@
         <v>17</v>
       </c>
       <c r="B520" s="66" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C520" s="71" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16975,10 +16988,10 @@
         <v>17</v>
       </c>
       <c r="B521" s="66" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C521" s="71" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16986,10 +16999,10 @@
         <v>18</v>
       </c>
       <c r="B522" s="66" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C522" s="71" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16997,7 +17010,7 @@
         <v>18</v>
       </c>
       <c r="B523" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17005,7 +17018,7 @@
         <v>18</v>
       </c>
       <c r="B524" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17013,7 +17026,7 @@
         <v>18</v>
       </c>
       <c r="B525" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17021,7 +17034,7 @@
         <v>18</v>
       </c>
       <c r="B526" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17029,7 +17042,7 @@
         <v>18</v>
       </c>
       <c r="B527" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17037,7 +17050,7 @@
         <v>18</v>
       </c>
       <c r="B528" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17045,7 +17058,7 @@
         <v>18</v>
       </c>
       <c r="B529" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17053,7 +17066,7 @@
         <v>18</v>
       </c>
       <c r="B530" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17061,7 +17074,7 @@
         <v>18</v>
       </c>
       <c r="B531" s="66" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17069,7 +17082,7 @@
         <v>19</v>
       </c>
       <c r="B532" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17077,7 +17090,7 @@
         <v>19</v>
       </c>
       <c r="B533" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17085,7 +17098,7 @@
         <v>19</v>
       </c>
       <c r="B534" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17093,7 +17106,7 @@
         <v>19</v>
       </c>
       <c r="B535" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17101,7 +17114,7 @@
         <v>19</v>
       </c>
       <c r="B536" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17109,7 +17122,7 @@
         <v>19</v>
       </c>
       <c r="B537" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17117,7 +17130,7 @@
         <v>19</v>
       </c>
       <c r="B538" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17125,7 +17138,7 @@
         <v>19</v>
       </c>
       <c r="B539" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17133,7 +17146,7 @@
         <v>19</v>
       </c>
       <c r="B540" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17141,7 +17154,7 @@
         <v>19</v>
       </c>
       <c r="B541" s="66" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17149,10 +17162,10 @@
         <v>20</v>
       </c>
       <c r="B542" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C542" s="71" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17160,10 +17173,10 @@
         <v>20</v>
       </c>
       <c r="B543" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C543" s="71" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17171,7 +17184,7 @@
         <v>20</v>
       </c>
       <c r="B544" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17179,7 +17192,7 @@
         <v>20</v>
       </c>
       <c r="B545" s="72" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17187,7 +17200,7 @@
         <v>20</v>
       </c>
       <c r="B546" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17195,7 +17208,7 @@
         <v>20</v>
       </c>
       <c r="B547" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17203,7 +17216,7 @@
         <v>20</v>
       </c>
       <c r="B548" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17211,7 +17224,7 @@
         <v>20</v>
       </c>
       <c r="B549" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17219,7 +17232,7 @@
         <v>2</v>
       </c>
       <c r="B550" s="26" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C550" s="27" t="s">
         <v>132</v>
@@ -17235,13 +17248,13 @@
         <v>8</v>
       </c>
       <c r="B551" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C551" s="63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D551" s="62" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E551" s="69"/>
       <c r="F551" s="69"/>
@@ -17251,13 +17264,13 @@
         <v>8</v>
       </c>
       <c r="B552" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C552" s="63" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D552" s="62" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E552" s="69"/>
       <c r="F552" s="69"/>
@@ -17267,13 +17280,13 @@
         <v>9</v>
       </c>
       <c r="B553" s="26" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C553" s="54" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D553" s="26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17281,10 +17294,10 @@
         <v>9</v>
       </c>
       <c r="B554" s="26" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C554" s="54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D554" s="26"/>
       <c r="E554" s="17"/>
@@ -17295,10 +17308,10 @@
         <v>9</v>
       </c>
       <c r="B555" s="26" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C555" s="54" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D555" s="26"/>
       <c r="E555" s="17"/>
@@ -17327,7 +17340,7 @@
         <v>1</v>
       </c>
       <c r="B557" s="15" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C557" s="16" t="s">
         <v>118</v>
@@ -17343,10 +17356,10 @@
         <v>1</v>
       </c>
       <c r="B558" s="73" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C558" s="74" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D558" s="17"/>
       <c r="E558" s="17"/>
@@ -17357,13 +17370,13 @@
         <v>8</v>
       </c>
       <c r="B559" s="26" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C559" s="54" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D559" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E559" s="51"/>
       <c r="F559" s="51"/>
@@ -17395,13 +17408,13 @@
         <v>12</v>
       </c>
       <c r="B560" s="28" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C560" s="30" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D560" s="28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E560" s="20"/>
       <c r="F560" s="20"/>
@@ -17433,13 +17446,13 @@
         <v>12</v>
       </c>
       <c r="B561" s="28" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C561" s="30" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D561" s="28" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E561" s="28" t="s">
         <v>134</v>
@@ -17546,27 +17559,27 @@
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="71" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="71" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="71" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="71" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="66" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18180,1089 +18193,1089 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="86" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="86" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="86" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="86" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="86" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="86" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="86" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="86" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="86" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="86" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="86" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="86" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="86" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="86" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="86" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="86" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="86" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="86" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="86" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="86" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="86" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="86" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="86" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="86" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="86" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="86" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="86" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="86" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="86" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="86" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="86" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="86" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="86" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="86" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="86" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="86" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="86" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="86" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="86" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="86" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="86" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="86" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="86" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="86" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="86" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="86" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="86" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="86" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="86" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="86" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="86" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="86" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="86" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="86" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="86" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="86" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="86" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="86" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="86" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="86" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="86" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="86" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="86" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="86" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="86" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="86" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="86" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="86" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="86" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="86" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="86" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="86" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="86" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="86" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="86" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="86" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="86" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="86" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="86" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="86" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="86" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="86" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="86" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="86" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="86" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="86" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="86" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="86" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="86" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="86" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="86" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="86" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="86" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="86" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="86" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="86" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="86" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="86" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="86" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="86" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="86" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="86" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="86" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="86" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="86" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="86" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="86" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="86" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="86" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="86" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="86" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="86" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="86" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="86" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="86" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="86" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="86" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="86" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="86" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="86" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="86" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="86" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="86" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="86" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="86" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="86" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="86" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="86" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="86" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="86" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="86" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="86" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="86" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="86" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="86" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="86" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="86" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="86" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="86" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="86" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="86" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="86" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="86" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="86" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="86" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="86" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="86" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="86" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="86" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="86" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="86" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="86" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="86" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="86" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="86" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="86" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="86" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="86" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="86" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="86" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="86" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="86" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="86" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="86" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="86" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="86" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="86" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="86" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="86" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="86" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="86" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="86" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="86" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="86" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="86" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="86" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="86" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="86" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="86" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="86" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="86" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="86" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="86" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="86" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="86" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="86" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="86" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="86" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="86" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="86" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="86" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="86" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="86" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="86" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="86" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="86" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="86" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="86" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="86" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="86" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="86" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="86" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="86" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="86" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="86" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="86" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="86" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="86" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="86" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="86" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="86" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="86" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="86" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
